--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2C7EF2-C751-174A-8453-76B8C251D65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A49442-585C-6C41-BAE9-83B5ACDC44A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD with turns" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>wall street with turns</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>husdon river validation</t>
+  </si>
+  <si>
+    <t>wall street without turns</t>
+  </si>
+  <si>
+    <t>union square without turns</t>
+  </si>
+  <si>
+    <t>cmu without turns</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +126,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3713,6 +3728,4611 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>wall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>street</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA5F-B44D-A14E-F159F2604E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA5F-B44D-A14E-F159F2604E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA5F-B44D-A14E-F159F2604E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA5F-B44D-A14E-F159F2604E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BA5F-B44D-A14E-F159F2604E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BA5F-B44D-A14E-F159F2604E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BA5F-B44D-A14E-F159F2604E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="549719871"/>
+        <c:axId val="545640287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="549719871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545640287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="545640287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549719871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>union</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>square</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A021-9B49-A237-D920E264C22D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A021-9B49-A237-D920E264C22D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A021-9B49-A237-D920E264C22D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A021-9B49-A237-D920E264C22D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A021-9B49-A237-D920E264C22D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A021-9B49-A237-D920E264C22D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A021-9B49-A237-D920E264C22D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1225394847"/>
+        <c:axId val="1250830703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1225394847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250830703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1250830703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225394847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>cmu</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$36:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E84-3247-8A03-2E08B60D84AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E84-3247-8A03-2E08B60D84AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E84-3247-8A03-2E08B60D84AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E84-3247-8A03-2E08B60D84AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4E84-3247-8A03-2E08B60D84AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$41:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4E84-3247-8A03-2E08B60D84AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD without turns'!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD without turns'!$B$42:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4E84-3247-8A03-2E08B60D84AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1285009247"/>
+        <c:axId val="1285028415"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1285009247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285028415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1285028415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285009247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3806,6 +8426,119 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C64F6A-B4B1-6440-AB9E-388BBEDBECCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551A8AB7-2422-F947-96EC-7C0543881FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F031AF0-B256-8141-AA5A-12A3FC805596}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4126,7 +8859,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4135,17 +8868,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -4406,17 +9139,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -4677,17 +9410,17 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -4948,16 +9681,16 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -5003,26 +9736,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D505D9-0073-9942-A60B-C48A5413D428}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -5266,11 +9999,524 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1">
+        <v>35</v>
+      </c>
+      <c r="I18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>60</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.316</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>75</v>
+      </c>
+      <c r="B22" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>80</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>90</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.126</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.872</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>100</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1">
+        <v>30</v>
+      </c>
+      <c r="H35" s="1">
+        <v>35</v>
+      </c>
+      <c r="I35" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>50</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>60</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F37" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G37" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>70</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C38" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.156</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>80</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>90</v>
+      </c>
+      <c r="B41" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.872</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>100</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.876</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA5F4C4-B40A-2143-B39D-E0F9F94CCD92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4BD3B-B39F-8C4B-9509-AAEFF0EE88FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>wall street with turns</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>cmu</t>
+  </si>
+  <si>
+    <t>hudson river</t>
   </si>
 </sst>
 </file>
@@ -204,9 +207,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,9 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,6 +236,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7855,8 +7858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A52"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7865,1030 +7868,1030 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>50</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.114</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.186</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.246</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>60</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.01</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>70</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.108</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.46400000000000002</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.61599999999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.72</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>75</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.216</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.65200000000000002</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.878</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>80</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.70199999999999996</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.88600000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.95399999999999996</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>90</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.74199999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.97199999999999998</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.996</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.98</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>100</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.996</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.998</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.126</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.30399999999999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.46400000000000002</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.56200000000000006</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.65400000000000003</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.71799999999999997</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.75</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.40400000000000003</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.504</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.61199999999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.68799999999999994</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.74199999999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>50</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.01</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.128</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>60</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.112</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.316</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0.41199999999999998</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.54</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>70</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.03</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.46600000000000003</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.63600000000000001</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.77</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.83199999999999996</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>75</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>0.38800000000000001</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>80</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.26</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.59599999999999997</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.91800000000000004</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>90</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>0.83599999999999997</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0.98199999999999998</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>100</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>0.378</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>0.83399999999999996</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>0.998</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>0.998</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>0.996</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>0.16600000000000001</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>0.38800000000000001</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>0.59599999999999997</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>0.878</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>0.152</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>0.60399999999999998</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>0.77800000000000002</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>50</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>0.06</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>0.09</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>0.18</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>0.218</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>60</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>0.2</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>0.34</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>70</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>0.11</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>0.21</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>0.61</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>0.67400000000000004</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>75</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>0.746</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>0.82</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>0.84</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>80</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>0.04</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>0.224</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>0.628</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>0.72</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>0.77</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>0.86</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>90</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>0.69</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>100</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>0.79400000000000004</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>0.874</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>0.89600000000000002</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>0.04</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>0.08</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>0.16800000000000001</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>0.318</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>0.40400000000000003</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>0.48199999999999998</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>0.106</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>0.216</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <v>0.504</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>0.152</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>0.312</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>0.5</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="3">
         <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>0.11</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>0.29199999999999998</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>0.45800000000000002</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>0.57799999999999996</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>0.67400000000000004</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>0.72799999999999998</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>0.12</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>0.54600000000000004</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>0.67400000000000004</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -8919,815 +8922,815 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>50</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>60</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>70</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.128</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.32400000000000001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.41599999999999998</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.496</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>75</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.02</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>80</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.83199999999999996</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>90</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.59</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.85799999999999998</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.97</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>100</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.42199999999999999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.96</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.99</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.98</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>7.8E-2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.33400000000000002</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.47799999999999998</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0.61599999999999999</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>50</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>60</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.04</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.06</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>70</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.316</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>75</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>0.19</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>80</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.36</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.85799999999999998</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>90</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>0.126</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>0.5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>0.872</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>0.94199999999999995</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>100</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>0.29599999999999999</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>0.95</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>0.97</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>0.624</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>0.75600000000000001</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>0.82</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>5</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>10</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>15</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>20</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>25</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>30</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>35</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>50</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>0</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>0</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>0</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>2E-3</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>0</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>60</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>0</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>2E-3</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>70</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>0.21</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>0.34599999999999997</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>75</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>0.156</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>0.27200000000000002</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>0.68</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>80</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>0.27800000000000002</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>0.41</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>0.52</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <v>0.66200000000000003</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>90</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>0.77800000000000002</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <v>0.872</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>0.88</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>100</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>0.20799999999999999</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>0.56200000000000006</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>0.73</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>0.876</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>0.91</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <v>0.93</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>6.2E-2</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>0.11</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="7">
         <v>0.17399999999999999</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <v>0.214</v>
       </c>
     </row>
@@ -9748,7 +9751,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9757,159 +9760,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="12">
+      <c r="B1" s="10">
         <v>5</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="10">
         <v>10</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="10">
         <v>15</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="10">
         <v>20</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="10">
         <v>25</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="10">
         <v>30</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="10">
         <v>35</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.108</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>0.188</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>0.26</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.08</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.246</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.16</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9930,644 +9935,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.216</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.65200000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.878</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.09</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.39</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.67</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.746</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.91</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.186</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.216</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.998</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.38800000000000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>0.124</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.65400000000000003</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.84</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.94</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.17</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.46400000000000002</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0.746</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.89600000000000002</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.214</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.51200000000000001</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>0.78600000000000003</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.998</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.246</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>0.746</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>0.82</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>0.84</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>0.57599999999999996</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>0.73399999999999999</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>0.82199999999999995</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>0.89400000000000002</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>0.90800000000000003</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>0.128</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>0.41</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>0.78200000000000003</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>0.69199999999999995</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>0.87</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>0.90800000000000003</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>0.192</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>0.498</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>0.72599999999999998</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>0.88</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>0.92</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10594,644 +10599,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.02</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.36599999999999999</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.57199999999999995</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.47399999999999998</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.95</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.55600000000000005</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.76</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.126</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.97</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.19</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.374</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.55200000000000005</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.72</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.89</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.108</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.25600000000000001</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.64</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.876</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.97</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.14199999999999999</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>0.49399999999999999</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.69399999999999995</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.83799999999999997</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.54</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.72</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.86599999999999999</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>0.156</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>0.27200000000000002</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>0.68</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>0.16400000000000001</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>0.496</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>0.622</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>0.72799999999999998</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>0.81</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>0.85</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>0.69399999999999995</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>0.84799999999999998</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>0.89</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>0.1</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>0.27</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>0.47599999999999998</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>0.63</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>0.73799999999999999</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>0.82799999999999996</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>0.874</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>0.91</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>0.126</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>0.51800000000000002</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>0.84599999999999997</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>0.92</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11258,644 +11263,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.06</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.84799999999999998</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.09</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.27200000000000002</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.53600000000000003</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.72199999999999998</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.85399999999999998</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.314</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.56799999999999995</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.74399999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.86799999999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.24</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.39</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.62</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.77800000000000002</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.878</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.94199999999999995</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.32200000000000001</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.79</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.05</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.64</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.81399999999999995</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.438</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.65600000000000003</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0.94</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.67</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.68799999999999994</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.86</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.98</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.27800000000000002</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.73</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.98</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>0.18</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>0.39</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>0.78400000000000003</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>0.89200000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>0.21</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>0.434</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>0.83199999999999996</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>0.874</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>0.91</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>0.1</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>0.23799999999999999</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>0.65</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>0.78600000000000003</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>0.85</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>0.51400000000000001</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>0.67</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>0.80600000000000005</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>0.872</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>0.21199999999999999</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>0.33600000000000002</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>0.55200000000000005</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>0.70399999999999996</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>0.82</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>0.88200000000000001</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <v>0.93</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11922,644 +11927,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.41399999999999998</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.69199999999999995</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.79</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.08</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.31</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.60199999999999998</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.874</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.48</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.622</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.72399999999999998</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.24199999999999999</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.54</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.65600000000000003</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.746</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.84599999999999997</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.69199999999999995</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.128</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.56599999999999995</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.69199999999999995</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.16</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.436</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.59199999999999997</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0.30199999999999999</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.46200000000000002</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.76800000000000002</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.83</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>0.374</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.52600000000000002</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.68200000000000005</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.79400000000000004</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.85399999999999998</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0.24</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.44</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.6</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.73199999999999998</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.81799999999999995</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.876</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>0.184</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>0.33200000000000002</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>0.46600000000000003</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>0.58199999999999996</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>0.24</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>0.51800000000000002</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>0.628</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>0.41799999999999998</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>0.65200000000000002</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>0.76</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>0.122</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>0.192</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>0.33200000000000002</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>0.45400000000000001</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>0.58799999999999997</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>0.7</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>0.79</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>0.188</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>0.25</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>0.376</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>0.51400000000000001</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>0.63400000000000001</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>0.73599999999999999</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <v>0.81</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4BD3B-B39F-8C4B-9509-AAEFF0EE88FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA7FEE8-C4FF-3D4A-88DF-6DAE8DAC8C74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$7</c:f>
+              <c:f>'BSD_T_length '!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$7:$I$7</c:f>
+              <c:f>'BSD_T_length '!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -979,7 +979,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$8</c:f>
+              <c:f>'BSD_T_length '!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1056,7 +1056,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$8:$I$8</c:f>
+              <c:f>'BSD_T_length '!$B$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1099,7 +1099,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$9</c:f>
+              <c:f>'BSD_T_length '!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1176,7 +1176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$9:$I$9</c:f>
+              <c:f>'BSD_T_length '!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1219,7 +1219,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$10</c:f>
+              <c:f>'BSD_T_length '!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1296,7 +1296,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$10:$I$10</c:f>
+              <c:f>'BSD_T_length '!$B$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1547,7 +1547,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$19</c:f>
+              <c:f>'BSD_T_length '!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1591,7 +1591,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$18:$I$18</c:f>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1624,7 +1624,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$20:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1667,7 +1667,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$20</c:f>
+              <c:f>'BSD_T_length '!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1711,7 +1711,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$18:$I$18</c:f>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1744,7 +1744,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$20:$I$20</c:f>
+              <c:f>'BSD_T_length '!$B$21:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1787,7 +1787,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$21</c:f>
+              <c:f>'BSD_T_length '!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1831,7 +1831,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$18:$I$18</c:f>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1864,7 +1864,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$21:$I$21</c:f>
+              <c:f>'BSD_T_length '!$B$22:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1907,7 +1907,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$22</c:f>
+              <c:f>'BSD_T_length '!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1951,7 +1951,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$18:$I$18</c:f>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1984,7 +1984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$22:$I$22</c:f>
+              <c:f>'BSD_T_length '!$B$23:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2027,7 +2027,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$23</c:f>
+              <c:f>'BSD_T_length '!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2071,7 +2071,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$18:$I$18</c:f>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2104,7 +2104,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$23:$I$23</c:f>
+              <c:f>'BSD_T_length '!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2147,7 +2147,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$24</c:f>
+              <c:f>'BSD_T_length '!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2191,7 +2191,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$18:$I$18</c:f>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2224,7 +2224,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$24:$I$24</c:f>
+              <c:f>'BSD_T_length '!$B$25:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2267,7 +2267,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$25</c:f>
+              <c:f>'BSD_T_length '!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2311,7 +2311,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$18:$I$18</c:f>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2344,7 +2344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$25:$I$25</c:f>
+              <c:f>'BSD_T_length '!$B$26:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2387,7 +2387,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$26</c:f>
+              <c:f>'BSD_T_length '!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2431,7 +2431,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$18:$I$18</c:f>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2464,7 +2464,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$26:$I$26</c:f>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2715,7 +2715,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$35</c:f>
+              <c:f>'BSD_T_length '!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2759,7 +2759,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2792,7 +2792,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$36:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2835,7 +2835,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$36</c:f>
+              <c:f>'BSD_T_length '!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2879,7 +2879,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2912,7 +2912,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$36:$I$36</c:f>
+              <c:f>'BSD_T_length '!$B$37:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2955,7 +2955,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$37</c:f>
+              <c:f>'BSD_T_length '!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2999,7 +2999,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3032,7 +3032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$37:$I$37</c:f>
+              <c:f>'BSD_T_length '!$B$38:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3075,7 +3075,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$38</c:f>
+              <c:f>'BSD_T_length '!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3119,7 +3119,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3152,7 +3152,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$38:$I$38</c:f>
+              <c:f>'BSD_T_length '!$B$39:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3195,7 +3195,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$39</c:f>
+              <c:f>'BSD_T_length '!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3239,7 +3239,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3272,7 +3272,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$39:$I$39</c:f>
+              <c:f>'BSD_T_length '!$B$40:$I$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3315,7 +3315,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$40</c:f>
+              <c:f>'BSD_T_length '!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3359,7 +3359,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3392,7 +3392,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$40:$I$40</c:f>
+              <c:f>'BSD_T_length '!$B$41:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3435,7 +3435,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$41</c:f>
+              <c:f>'BSD_T_length '!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3479,7 +3479,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3512,7 +3512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$41:$I$41</c:f>
+              <c:f>'BSD_T_length '!$B$42:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3555,7 +3555,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$42</c:f>
+              <c:f>'BSD_T_length '!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3599,7 +3599,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3632,7 +3632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$42:$I$42</c:f>
+              <c:f>'BSD_T_length '!$B$43:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7375,13 +7375,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>196920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>437040</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7411,13 +7411,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>197280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>437040</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7856,10 +7856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8023,363 +8023,361 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>80</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C7" s="3">
-        <v>0.38400000000000001</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>0.70199999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="E7" s="3">
-        <v>0.88600000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="G7" s="3">
-        <v>0.96599999999999997</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="H7" s="3">
-        <v>0.97399999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I7" s="3">
-        <v>0.96599999999999997</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3">
-        <v>0.17799999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>0.74199999999999999</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D8" s="3">
-        <v>0.93600000000000005</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="E8" s="3">
-        <v>0.97199999999999998</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="F8" s="3">
-        <v>0.98599999999999999</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="G8" s="3">
-        <v>0.99199999999999999</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H8" s="3">
-        <v>0.996</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="I8" s="3">
-        <v>0.98</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>100</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>0.996</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>0.998</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>0.126</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>0.30399999999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>0.46400000000000002</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>0.56200000000000006</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>0.65400000000000003</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>0.71799999999999997</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>0.75</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>0.11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>0.40400000000000003</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>0.504</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>0.61199999999999999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>0.68799999999999994</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <v>0.74199999999999999</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I19" s="1">
         <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>50</v>
-      </c>
-      <c r="B19" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.128</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C20" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D20" s="3">
-        <v>0.112</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>0.19600000000000001</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F20" s="3">
-        <v>0.316</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>0.41199999999999998</v>
+        <v>0.128</v>
       </c>
       <c r="H20" s="3">
-        <v>0.54</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="I20" s="3">
-        <v>0.64800000000000002</v>
+        <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3">
-        <v>0.03</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C21" s="3">
-        <v>0.11799999999999999</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>0.27600000000000002</v>
+        <v>0.112</v>
       </c>
       <c r="E21" s="3">
-        <v>0.46600000000000003</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="F21" s="3">
-        <v>0.63600000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="G21" s="3">
-        <v>0.77</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="H21" s="3">
-        <v>0.83199999999999996</v>
+        <v>0.54</v>
       </c>
       <c r="I21" s="3">
-        <v>0.88800000000000001</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B22" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C22" s="3">
-        <v>0.17399999999999999</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D22" s="3">
-        <v>0.38800000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E22" s="3">
-        <v>0.61399999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="F22" s="3">
-        <v>0.80400000000000005</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="G22" s="3">
-        <v>0.91400000000000003</v>
+        <v>0.77</v>
       </c>
       <c r="H22" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="I22" s="3">
-        <v>0.96399999999999997</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C23" s="3">
-        <v>0.26</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D23" s="3">
-        <v>0.59599999999999997</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="E23" s="3">
-        <v>0.80200000000000005</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>0.91800000000000004</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="G23" s="3">
-        <v>0.96599999999999997</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="H23" s="3">
-        <v>0.97599999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I23" s="3">
-        <v>0.98799999999999999</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3">
-        <v>0.17199999999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C24" s="3">
-        <v>0.60599999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="D24" s="3">
-        <v>0.83599999999999997</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E24" s="3">
-        <v>0.92200000000000004</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="F24" s="3">
-        <v>0.98199999999999998</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="G24" s="3">
-        <v>0.98799999999999999</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H24" s="3">
-        <v>0.99399999999999999</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I24" s="3">
         <v>0.98799999999999999</v>
@@ -8387,520 +8385,549 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
+        <v>90</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>100</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>0.378</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>0.83399999999999996</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>0.998</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
         <v>0.998</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>0.996</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="3">
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4">
         <v>0.16600000000000001</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>0.38800000000000001</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>0.59599999999999997</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>0.878</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I27" s="4">
         <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>0.152</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>0.60399999999999998</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <v>0.77800000000000002</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>0.89800000000000002</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="3">
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="1">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G35" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H35" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I35" s="1">
         <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>50</v>
-      </c>
-      <c r="B35" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0.218</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3">
-        <v>2E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C36" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D36" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E36" s="3">
-        <v>0.14399999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="F36" s="3">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="G36" s="3">
-        <v>0.27600000000000002</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="H36" s="3">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="I36" s="3">
-        <v>0.41799999999999998</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B37" s="3">
-        <v>2.4E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="C37" s="3">
-        <v>0.11</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D37" s="3">
-        <v>0.21</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E37" s="3">
-        <v>0.35199999999999998</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F37" s="3">
-        <v>0.48399999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.61</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="H37" s="3">
-        <v>0.67400000000000004</v>
+        <v>0.34</v>
       </c>
       <c r="I37" s="3">
-        <v>0.74199999999999999</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B38" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C38" s="3">
-        <v>0.14799999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="D38" s="3">
-        <v>0.35799999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="E38" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="F38" s="3">
-        <v>0.68600000000000005</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="G38" s="3">
-        <v>0.746</v>
+        <v>0.61</v>
       </c>
       <c r="H38" s="3">
-        <v>0.82</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="I38" s="3">
-        <v>0.84</v>
+        <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3">
-        <v>0.04</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C39" s="3">
-        <v>0.224</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="D39" s="3">
-        <v>0.45600000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="E39" s="3">
-        <v>0.628</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F39" s="3">
-        <v>0.72</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="G39" s="3">
-        <v>0.77</v>
+        <v>0.746</v>
       </c>
       <c r="H39" s="3">
-        <v>0.82599999999999996</v>
+        <v>0.82</v>
       </c>
       <c r="I39" s="3">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B40" s="3">
-        <v>9.4E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C40" s="3">
-        <v>0.47199999999999998</v>
+        <v>0.224</v>
       </c>
       <c r="D40" s="3">
-        <v>0.69</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E40" s="3">
-        <v>0.81200000000000006</v>
+        <v>0.628</v>
       </c>
       <c r="F40" s="3">
-        <v>0.86399999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G40" s="3">
-        <v>0.89200000000000002</v>
+        <v>0.77</v>
       </c>
       <c r="H40" s="3">
-        <v>0.91400000000000003</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="I40" s="3">
-        <v>0.92600000000000005</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
+        <v>90</v>
+      </c>
+      <c r="B41" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>100</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="3">
         <v>0.79400000000000004</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="3">
         <v>0.874</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="3">
         <v>0.89600000000000002</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="3">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H42" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I42" s="3">
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <v>0.04</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C43" s="4">
         <v>0.08</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="4">
         <v>0.16800000000000001</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F43" s="4">
         <v>0.318</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G43" s="4">
         <v>0.40400000000000003</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H43" s="4">
         <v>0.48199999999999998</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I43" s="4">
         <v>0.53200000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45" s="3">
         <v>0.106</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="3">
         <v>0.216</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="3">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H45" s="3">
         <v>0.504</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I45" s="3">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="13" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B50" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C50" s="3">
         <v>0.152</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D50" s="3">
         <v>0.312</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E50" s="3">
         <v>0.5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H50" s="3">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I50" s="3">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B51" s="6">
         <v>0.11</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C51" s="6">
         <v>0.29199999999999998</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>0.45800000000000002</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>0.57799999999999996</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>0.67400000000000004</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H51" s="6">
         <v>0.72799999999999998</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I51" s="6">
         <v>0.76800000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B53" s="3">
         <v>0.12</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C53" s="3">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="3">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <v>0.54600000000000004</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G53" s="3">
         <v>0.67400000000000004</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I53" s="3">
         <v>0.76200000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B49:I49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9750,7 +9777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F0FACB-EA77-744D-9F1B-27813583D2CB}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA7FEE8-C4FF-3D4A-88DF-6DAE8DAC8C74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BE8E7-82D9-104E-B807-B7E826F984F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
   <si>
     <t>wall street with turns</t>
   </si>
@@ -118,7 +118,16 @@
     <t>cmu</t>
   </si>
   <si>
-    <t>hudson river</t>
+    <t>old test routes</t>
+  </si>
+  <si>
+    <t>hudsonriver</t>
+  </si>
+  <si>
+    <t>new test routes</t>
+  </si>
+  <si>
+    <t>wall street with turns (new test routes)</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +201,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -205,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,13 +250,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,7 +877,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$8</c:f>
+              <c:f>'BSD_T_length '!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +954,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$8:$I$8</c:f>
+              <c:f>'BSD_T_length '!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -979,7 +997,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$9</c:f>
+              <c:f>'BSD_T_length '!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1056,7 +1074,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$9:$I$9</c:f>
+              <c:f>'BSD_T_length '!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1099,7 +1117,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$10</c:f>
+              <c:f>'BSD_T_length '!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1176,7 +1194,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$10:$I$10</c:f>
+              <c:f>'BSD_T_length '!$B$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1219,7 +1237,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$11</c:f>
+              <c:f>'BSD_T_length '!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1296,7 +1314,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$11:$I$11</c:f>
+              <c:f>'BSD_T_length '!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1547,7 +1565,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$20</c:f>
+              <c:f>'BSD_T_length '!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1591,7 +1609,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1624,7 +1642,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$20:$I$20</c:f>
+              <c:f>'BSD_T_length '!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1667,7 +1685,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$21</c:f>
+              <c:f>'BSD_T_length '!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1711,7 +1729,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1744,7 +1762,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$21:$I$21</c:f>
+              <c:f>'BSD_T_length '!$B$34:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1787,7 +1805,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$22</c:f>
+              <c:f>'BSD_T_length '!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1831,7 +1849,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1864,7 +1882,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$22:$I$22</c:f>
+              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1907,7 +1925,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$23</c:f>
+              <c:f>'BSD_T_length '!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1951,7 +1969,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1984,7 +2002,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$23:$I$23</c:f>
+              <c:f>'BSD_T_length '!$B$36:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2027,7 +2045,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$24</c:f>
+              <c:f>'BSD_T_length '!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2071,7 +2089,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2104,7 +2122,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$24:$I$24</c:f>
+              <c:f>'BSD_T_length '!$B$37:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2147,7 +2165,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$25</c:f>
+              <c:f>'BSD_T_length '!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2191,7 +2209,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2224,7 +2242,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$25:$I$25</c:f>
+              <c:f>'BSD_T_length '!$B$38:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2267,7 +2285,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$26</c:f>
+              <c:f>'BSD_T_length '!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2311,7 +2329,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2344,7 +2362,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$26:$I$26</c:f>
+              <c:f>'BSD_T_length '!$B$39:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2387,7 +2405,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$27</c:f>
+              <c:f>'BSD_T_length '!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2431,7 +2449,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:f>'BSD_T_length '!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2464,7 +2482,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
+              <c:f>'BSD_T_length '!$B$40:$I$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2715,7 +2733,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$36</c:f>
+              <c:f>'BSD_T_length '!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2759,7 +2777,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2792,7 +2810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$36:$I$36</c:f>
+              <c:f>'BSD_T_length '!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2835,7 +2853,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$37</c:f>
+              <c:f>'BSD_T_length '!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2879,7 +2897,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2912,7 +2930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$37:$I$37</c:f>
+              <c:f>'BSD_T_length '!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2955,7 +2973,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$38</c:f>
+              <c:f>'BSD_T_length '!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2999,7 +3017,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3032,7 +3050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$38:$I$38</c:f>
+              <c:f>'BSD_T_length '!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3075,7 +3093,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$39</c:f>
+              <c:f>'BSD_T_length '!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3119,7 +3137,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3152,7 +3170,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$39:$I$39</c:f>
+              <c:f>'BSD_T_length '!$B$52:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3195,7 +3213,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$40</c:f>
+              <c:f>'BSD_T_length '!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3239,7 +3257,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3272,7 +3290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$40:$I$40</c:f>
+              <c:f>'BSD_T_length '!$B$53:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3315,7 +3333,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$41</c:f>
+              <c:f>'BSD_T_length '!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3359,7 +3377,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3392,7 +3410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$41:$I$41</c:f>
+              <c:f>'BSD_T_length '!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3435,7 +3453,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$42</c:f>
+              <c:f>'BSD_T_length '!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3479,7 +3497,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3512,7 +3530,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$42:$I$42</c:f>
+              <c:f>'BSD_T_length '!$B$55:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3555,7 +3573,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$43</c:f>
+              <c:f>'BSD_T_length '!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3599,7 +3617,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$35:$I$35</c:f>
+              <c:f>'BSD_T_length '!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3632,7 +3650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$43:$I$43</c:f>
+              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7375,13 +7393,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>196920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>437040</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7411,13 +7429,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>197280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>437040</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7856,10 +7874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7868,17 +7886,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -8023,911 +8041,1116 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>80</v>
+      </c>
       <c r="B7" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C7" s="3">
-        <v>0.30399999999999999</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>0.59</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="E7" s="3">
-        <v>0.75800000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0.86599999999999999</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="G7" s="3">
-        <v>0.92800000000000005</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H7" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="I7" s="3">
-        <v>0.96399999999999997</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="C8" s="3">
-        <v>0.38400000000000001</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="D8" s="3">
-        <v>0.70199999999999996</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E8" s="3">
-        <v>0.88600000000000001</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="F8" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>0.96599999999999997</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="H8" s="3">
-        <v>0.97399999999999998</v>
+        <v>0.996</v>
       </c>
       <c r="I8" s="3">
-        <v>0.96599999999999997</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B9" s="3">
-        <v>0.17799999999999999</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="C9" s="3">
-        <v>0.74199999999999999</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D9" s="3">
-        <v>0.93600000000000005</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E9" s="3">
-        <v>0.97199999999999998</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="F9" s="3">
-        <v>0.98599999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="G9" s="3">
-        <v>0.99199999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="H9" s="3">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="I9" s="3">
-        <v>0.98</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>100</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.996</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.998</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.98399999999999999</v>
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.126</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.126</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.76400000000000001</v>
+      <c r="A11" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B12" s="3">
         <v>0.11</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C12" s="3">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D12" s="3">
         <v>0.40400000000000003</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E12" s="3">
         <v>0.504</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F12" s="3">
         <v>0.61199999999999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G12" s="3">
         <v>0.68799999999999994</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H12" s="3">
         <v>0.74199999999999999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I12" s="3">
         <v>0.76800000000000002</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40</v>
+      </c>
+    </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="2">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1">
-        <v>30</v>
-      </c>
-      <c r="H19" s="1">
-        <v>35</v>
-      </c>
-      <c r="I19" s="1">
-        <v>40</v>
-      </c>
+      <c r="A19" s="2">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>50</v>
-      </c>
-      <c r="B20" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.128</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.23599999999999999</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>60</v>
-      </c>
-      <c r="B21" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.112</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.316</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.64800000000000002</v>
+        <v>75</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>70</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0.88800000000000001</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>75</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0.96399999999999997</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>80</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.98799999999999999</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>90</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0.98799999999999999</v>
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.126</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>100</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.378</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.998</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.998</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.996</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0.99199999999999999</v>
+      <c r="A26" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.504</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="B27" s="4">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.878</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.152</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.97199999999999998</v>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1">
+        <v>25</v>
+      </c>
+      <c r="G32" s="1">
+        <v>30</v>
+      </c>
+      <c r="H32" s="1">
+        <v>35</v>
+      </c>
+      <c r="I32" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>50</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.128</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="A34" s="2">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.112</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.316</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.64800000000000002</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="1">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1">
-        <v>25</v>
-      </c>
-      <c r="G35" s="1">
-        <v>30</v>
-      </c>
-      <c r="H35" s="1">
-        <v>35</v>
-      </c>
-      <c r="I35" s="1">
-        <v>40</v>
+      <c r="A35" s="2">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C36" s="3">
-        <v>1.6E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D36" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="E36" s="3">
-        <v>0.06</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="F36" s="3">
-        <v>0.09</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="G36" s="3">
-        <v>0.11600000000000001</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="H36" s="3">
-        <v>0.18</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I36" s="3">
-        <v>0.218</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B37" s="3">
-        <v>2E-3</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C37" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>0.26</v>
       </c>
       <c r="D37" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="E37" s="3">
-        <v>0.14399999999999999</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="F37" s="3">
-        <v>0.2</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="G37" s="3">
-        <v>0.27600000000000002</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H37" s="3">
-        <v>0.34</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I37" s="3">
-        <v>0.41799999999999998</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B38" s="3">
-        <v>2.4E-2</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="C38" s="3">
-        <v>0.11</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D38" s="3">
-        <v>0.21</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="E38" s="3">
-        <v>0.35199999999999998</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="F38" s="3">
-        <v>0.48399999999999999</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="G38" s="3">
-        <v>0.61</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="H38" s="3">
-        <v>0.67400000000000004</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="I38" s="3">
-        <v>0.74199999999999999</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
+        <v>100</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.378</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.878</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.152</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1">
+        <v>30</v>
+      </c>
+      <c r="H48" s="1">
+        <v>35</v>
+      </c>
+      <c r="I48" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>60</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>70</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>75</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B52" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C52" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D52" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E52" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F52" s="3">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G52" s="3">
         <v>0.746</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H52" s="3">
         <v>0.82</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I52" s="3">
         <v>0.84</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>80</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B53" s="3">
         <v>0.04</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C53" s="3">
         <v>0.224</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D53" s="3">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E53" s="3">
         <v>0.628</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F53" s="3">
         <v>0.72</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G53" s="3">
         <v>0.77</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H53" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I53" s="3">
         <v>0.86</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>90</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B54" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C54" s="3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D54" s="3">
         <v>0.69</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E54" s="3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F54" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G54" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H54" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I54" s="3">
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>100</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B55" s="3">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C55" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D55" s="3">
         <v>0.79400000000000004</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E55" s="3">
         <v>0.874</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F55" s="3">
         <v>0.89600000000000002</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G55" s="3">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H55" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I55" s="3">
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B56" s="4">
         <v>0.04</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C56" s="4">
         <v>0.08</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D56" s="4">
         <v>0.16800000000000001</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E56" s="4">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F56" s="4">
         <v>0.318</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G56" s="4">
         <v>0.40400000000000003</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H56" s="4">
         <v>0.48199999999999998</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I56" s="4">
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B58" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C58" s="3">
         <v>0.106</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D58" s="3">
         <v>0.216</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E58" s="3">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F58" s="3">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G58" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H58" s="3">
         <v>0.504</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I58" s="3">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="13" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B63" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C63" s="3">
         <v>0.152</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D63" s="3">
         <v>0.312</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E63" s="3">
         <v>0.5</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F63" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G63" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H63" s="3">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I63" s="3">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B64" s="6">
         <v>0.11</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C64" s="6">
         <v>0.29199999999999998</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D64" s="6">
         <v>0.45800000000000002</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E64" s="6">
         <v>0.57799999999999996</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F64" s="6">
         <v>0.67400000000000004</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G64" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H64" s="6">
         <v>0.72799999999999998</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I64" s="6">
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B66" s="3">
         <v>0.12</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C66" s="3">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D66" s="3">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E66" s="3">
         <v>0.54600000000000004</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F66" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G66" s="3">
         <v>0.67400000000000004</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H66" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I66" s="3">
         <v>0.76200000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="A16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8949,17 +9172,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -9220,17 +9443,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -9491,17 +9714,17 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
@@ -9775,15 +9998,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F0FACB-EA77-744D-9F1B-27813583D2CB}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -9811,6 +10035,9 @@
       <c r="I1" s="10">
         <v>40</v>
       </c>
+      <c r="J1" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -9840,7 +10067,7 @@
       <c r="I2" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -9870,7 +10097,7 @@
       <c r="I3" s="3">
         <v>0.246</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -9900,12 +10127,10 @@
       <c r="I4" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="A5" s="14"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9917,7 +10142,7 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -9929,21 +10154,137 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A7" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10">
+        <v>30</v>
+      </c>
+      <c r="H10" s="10">
+        <v>35</v>
+      </c>
+      <c r="I10" s="10">
+        <v>40</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.246</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="J10:J13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9962,17 +10303,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -10179,17 +10520,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -10396,17 +10737,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -10626,17 +10967,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -10843,17 +11184,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -11060,17 +11401,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -11290,17 +11631,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -11507,17 +11848,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -11724,17 +12065,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -11954,17 +12295,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -12171,17 +12512,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -12388,17 +12729,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BE8E7-82D9-104E-B807-B7E826F984F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687676A-08B3-CE48-9982-DFBF6B0CE4D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
   <si>
     <t>wall street with turns</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>wall street with turns (new test routes)</t>
+  </si>
+  <si>
+    <t>wall street without turns (new test routes)</t>
+  </si>
+  <si>
+    <t>hudsonriver without turns</t>
   </si>
 </sst>
 </file>
@@ -5068,7 +5074,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$19</c:f>
+              <c:f>BSD_length!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5112,7 +5118,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5145,7 +5151,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$19:$I$19</c:f>
+              <c:f>BSD_length!$B$34:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5188,7 +5194,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$20</c:f>
+              <c:f>BSD_length!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5232,7 +5238,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5265,7 +5271,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$20:$I$20</c:f>
+              <c:f>BSD_length!$B$35:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5308,7 +5314,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$21</c:f>
+              <c:f>BSD_length!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5352,7 +5358,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5385,7 +5391,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$21:$I$21</c:f>
+              <c:f>BSD_length!$B$36:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5428,7 +5434,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$22</c:f>
+              <c:f>BSD_length!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5472,7 +5478,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5505,7 +5511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$22:$I$22</c:f>
+              <c:f>BSD_length!$B$37:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5548,7 +5554,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$23</c:f>
+              <c:f>BSD_length!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5592,7 +5598,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5625,7 +5631,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$38:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5668,7 +5674,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$24</c:f>
+              <c:f>BSD_length!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5712,7 +5718,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5745,7 +5751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$39:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5788,7 +5794,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$25</c:f>
+              <c:f>BSD_length!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5832,7 +5838,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5865,7 +5871,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$25:$I$25</c:f>
+              <c:f>BSD_length!$B$40:$I$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5908,7 +5914,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$26</c:f>
+              <c:f>BSD_length!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5952,7 +5958,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5985,7 +5991,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$26:$I$26</c:f>
+              <c:f>BSD_length!$B$41:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6206,7 +6212,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -6236,7 +6242,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$36</c:f>
+              <c:f>BSD_length!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6280,7 +6286,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6313,7 +6319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$36:$I$36</c:f>
+              <c:f>BSD_length!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6356,7 +6362,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$37</c:f>
+              <c:f>BSD_length!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6400,7 +6406,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6433,7 +6439,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$37:$I$37</c:f>
+              <c:f>BSD_length!$B$52:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6476,7 +6482,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$38</c:f>
+              <c:f>BSD_length!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6520,7 +6526,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6553,7 +6559,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$38:$I$38</c:f>
+              <c:f>BSD_length!$B$53:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6596,7 +6602,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$39</c:f>
+              <c:f>BSD_length!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6640,7 +6646,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6673,7 +6679,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$39:$I$39</c:f>
+              <c:f>BSD_length!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6716,7 +6722,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$40</c:f>
+              <c:f>BSD_length!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6760,7 +6766,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6793,7 +6799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$40:$I$40</c:f>
+              <c:f>BSD_length!$B$55:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6836,7 +6842,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$41</c:f>
+              <c:f>BSD_length!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6880,7 +6886,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6913,7 +6919,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$41:$I$41</c:f>
+              <c:f>BSD_length!$B$56:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6956,7 +6962,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$42</c:f>
+              <c:f>BSD_length!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7000,7 +7006,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7033,7 +7039,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$42:$I$42</c:f>
+              <c:f>BSD_length!$B$57:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7076,7 +7082,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$43</c:f>
+              <c:f>BSD_length!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7120,7 +7126,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$35:$I$35</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7153,7 +7159,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$43:$I$43</c:f>
+              <c:f>BSD_length!$B$58:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7504,16 +7510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>196980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>437040</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7542,14 +7548,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6120</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>184280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>437040</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>94480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7876,7 +7882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -9160,10 +9166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="A49:I52 D14"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9442,553 +9448,841 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1">
-        <v>30</v>
-      </c>
-      <c r="H18" s="1">
-        <v>35</v>
-      </c>
-      <c r="I18" s="1">
-        <v>40</v>
-      </c>
+      <c r="A18" s="2">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>50</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>60</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.06</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.316</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.49199999999999999</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>75</v>
-      </c>
-      <c r="B22" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0.76400000000000001</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>80</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0.89600000000000002</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>90</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.126</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.872</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.94799999999999995</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>100</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="7">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.624</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0.92200000000000004</v>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1">
+        <v>35</v>
+      </c>
+      <c r="I33" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="2">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="1">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1">
-        <v>25</v>
-      </c>
-      <c r="G35" s="1">
-        <v>30</v>
-      </c>
-      <c r="H35" s="1">
-        <v>35</v>
-      </c>
-      <c r="I35" s="1">
-        <v>40</v>
+      <c r="A35" s="2">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.06</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3">
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="G36" s="3">
-        <v>2E-3</v>
+        <v>0.316</v>
       </c>
       <c r="H36" s="3">
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="I36" s="3">
-        <v>0</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C37" s="3">
-        <v>2E-3</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D37" s="3">
-        <v>2E-3</v>
+        <v>0.19</v>
       </c>
       <c r="E37" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="F37" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="G37" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="H37" s="3">
-        <v>2E-3</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="I37" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B38" s="3">
-        <v>1.2E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C38" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D38" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>0.36</v>
       </c>
       <c r="E38" s="3">
-        <v>0.14799999999999999</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F38" s="3">
-        <v>0.21</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="G38" s="3">
-        <v>0.27600000000000002</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H38" s="3">
-        <v>0.34599999999999997</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="I38" s="3">
-        <v>0.40799999999999997</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3">
-        <v>1.4E-2</v>
+        <v>0.126</v>
       </c>
       <c r="C39" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>0.5</v>
       </c>
       <c r="D39" s="3">
-        <v>0.156</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="E39" s="3">
-        <v>0.27200000000000002</v>
+        <v>0.872</v>
       </c>
       <c r="F39" s="3">
-        <v>0.38400000000000001</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="G39" s="3">
-        <v>0.47799999999999998</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="H39" s="3">
-        <v>0.61799999999999999</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="I39" s="3">
-        <v>0.68</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
+        <v>100</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.624</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1">
+        <v>25</v>
+      </c>
+      <c r="G50" s="1">
+        <v>30</v>
+      </c>
+      <c r="H50" s="1">
+        <v>35</v>
+      </c>
+      <c r="I50" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>60</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>70</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>75</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>80</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B55" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C55" s="3">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D55" s="3">
         <v>0.27800000000000002</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E55" s="3">
         <v>0.41</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F55" s="3">
         <v>0.52</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G55" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H55" s="3">
         <v>0.66200000000000003</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I55" s="3">
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>90</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B56" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C56" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D56" s="3">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E56" s="3">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F56" s="3">
         <v>0.77800000000000002</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G56" s="3">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H56" s="3">
         <v>0.872</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I56" s="3">
         <v>0.88</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>100</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B57" s="3">
         <v>0.20799999999999999</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C57" s="3">
         <v>0.56200000000000006</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D57" s="3">
         <v>0.73</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E57" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F57" s="3">
         <v>0.876</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G57" s="3">
         <v>0.91</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H57" s="3">
         <v>0.93</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I57" s="3">
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B58" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C58" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D58" s="7">
         <v>6.2E-2</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E58" s="7">
         <v>0.11</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F58" s="7">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G58" s="7">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H58" s="7">
         <v>0.17399999999999999</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I58" s="7">
         <v>0.214</v>
       </c>
     </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1">
+        <v>20</v>
+      </c>
+      <c r="F66" s="1">
+        <v>25</v>
+      </c>
+      <c r="G66" s="1">
+        <v>30</v>
+      </c>
+      <c r="H66" s="1">
+        <v>35</v>
+      </c>
+      <c r="I66" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>50</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>60</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>75</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>80</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>90</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>100</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A65:I65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687676A-08B3-CE48-9982-DFBF6B0CE4D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582866AD-2641-B343-94FB-61614E38678C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="25020" windowHeight="14000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -22,6 +22,42 @@
     <sheet name=" BSD_dist" sheetId="6" r:id="rId7"/>
     <sheet name="ES" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'BSD_T_length '!$A$63</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'BSD_T_length '!$A$64:$A$70</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'BSD_T_length '!$F$63</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'BSD_T_length '!$F$64:$F$70</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'BSD_T_length '!$G$63</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'BSD_T_length '!$G$64:$G$70</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'BSD_T_length '!$H$63</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'BSD_T_length '!$H$64:$H$70</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'BSD_T_length '!$I$63</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'BSD_T_length '!$I$64:$I$70</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'BSD_T_length '!$A$63</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'BSD_T_length '!$A$64</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'BSD_T_length '!$B$63</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'BSD_T_length '!$A$65</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'BSD_T_length '!$A$66</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'BSD_T_length '!$A$67</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'BSD_T_length '!$A$68</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'BSD_T_length '!$A$69</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'BSD_T_length '!$A$70</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'BSD_T_length '!$B$63:$I$63</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'BSD_T_length '!$B$64:$I$64</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'BSD_T_length '!$B$65:$I$65</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'BSD_T_length '!$B$66:$I$66</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'BSD_T_length '!$B$64:$B$70</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'BSD_T_length '!$B$67:$I$67</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'BSD_T_length '!$B$68:$I$68</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'BSD_T_length '!$B$69:$I$69</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'BSD_T_length '!$B$70:$I$70</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'BSD_T_length '!$C$63</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'BSD_T_length '!$C$64:$C$70</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'BSD_T_length '!$D$63</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'BSD_T_length '!$D$64:$D$70</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'BSD_T_length '!$E$63</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'BSD_T_length '!$E$64:$E$70</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="33">
   <si>
     <t>wall street with turns</t>
   </si>
@@ -56,9 +92,6 @@
   </si>
   <si>
     <t>husdon river validation</t>
-  </si>
-  <si>
-    <t>BSD</t>
   </si>
   <si>
     <t>wall street without turns</t>
@@ -226,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +299,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2425,6 +2464,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -3593,6 +3633,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -3859,6 +3900,2040 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>wall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>street</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1380-404D-BFEC-6CB0C71C8E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1380-404D-BFEC-6CB0C71C8E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1380-404D-BFEC-6CB0C71C8E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1380-404D-BFEC-6CB0C71C8E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1380-404D-BFEC-6CB0C71C8E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1380-404D-BFEC-6CB0C71C8E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1380-404D-BFEC-6CB0C71C8E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ES1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1380-404D-BFEC-6CB0C71C8E1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="191408560"/>
+        <c:axId val="155678512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="191408560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155678512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="155678512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="191408560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>hudson</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>river</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B418-ED4E-83CB-6698432DD63D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B418-ED4E-83CB-6698432DD63D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$66:$I$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B418-ED4E-83CB-6698432DD63D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$67:$I$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B418-ED4E-83CB-6698432DD63D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$68:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B418-ED4E-83CB-6698432DD63D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$69:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B418-ED4E-83CB-6698432DD63D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$70:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B418-ED4E-83CB-6698432DD63D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="190913536"/>
+        <c:axId val="190915216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190913536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190915216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190915216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190913536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:title>
@@ -5022,7 +7097,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6190,7 +8265,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7357,6 +9432,1118 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7462,6 +10649,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C574A6-3763-834D-BA0A-E01D0496A96B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81611BC3-06CE-134F-B6CA-D5B4DF60CEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7880,10 +11139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8198,7 +11457,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -8239,40 +11498,88 @@
       <c r="A18" s="2">
         <v>50</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>60</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.68200000000000005</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>70</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.93600000000000005</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -8307,69 +11614,101 @@
       <c r="A22" s="2">
         <v>80</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.752</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>90</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="3">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.98799999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>100</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="3">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="4">
-        <v>0.126</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.76400000000000001</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -8380,30 +11719,14 @@
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.504</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0.76800000000000002</v>
-      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -9051,102 +12374,303 @@
       <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="3">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0.152</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0.312</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="16">
+        <v>5</v>
+      </c>
+      <c r="C63" s="16">
+        <v>10</v>
+      </c>
+      <c r="D63" s="16">
+        <v>15</v>
+      </c>
+      <c r="E63" s="16">
+        <v>20</v>
+      </c>
+      <c r="F63" s="16">
+        <v>25</v>
+      </c>
+      <c r="G63" s="16">
+        <v>30</v>
+      </c>
+      <c r="H63" s="16">
+        <v>35</v>
+      </c>
+      <c r="I63" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>50</v>
+      </c>
+      <c r="B64" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C64" s="15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D64" s="15">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F64" s="15">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G64" s="15">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H64" s="15">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="I64" s="15">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>60</v>
+      </c>
+      <c r="B65" s="15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C65" s="15">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0.104</v>
+      </c>
+      <c r="E65" s="15">
+        <v>0.184</v>
+      </c>
+      <c r="F65" s="15">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="H65" s="15">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>70</v>
+      </c>
+      <c r="B66" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C66" s="15">
+        <v>0.124</v>
+      </c>
+      <c r="D66" s="15">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E66" s="15">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F66" s="15">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="G66" s="15">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H66" s="15">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I66" s="15">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>75</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.224</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E67" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G63" s="3">
+      <c r="F67" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>80</v>
+      </c>
+      <c r="B68" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.626</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>90</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>100</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="H73" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="H63" s="3">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0.79400000000000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="C64" s="6">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D64" s="6">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="F64" s="6">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="G64" s="6">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="H64" s="6">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="I64" s="6">
-        <v>0.76800000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I73" s="3">
         <v>0.76200000000000001</v>
       </c>
     </row>
@@ -9168,8 +12692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9179,7 +12703,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -9450,7 +12974,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9491,53 +13015,117 @@
       <c r="A18" s="2">
         <v>50</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>60</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>70</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.57199999999999995</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>75</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.108</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.76800000000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -9593,7 +13181,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9864,7 +13452,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -10135,7 +13723,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -10330,12 +13918,12 @@
         <v>40</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3">
         <v>2E-3</v>
@@ -10365,7 +13953,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>4.0000000000000001E-3</v>
@@ -10395,7 +13983,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -10476,12 +14064,12 @@
         <v>40</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <v>2E-3</v>
@@ -10511,7 +14099,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
         <v>4.0000000000000001E-3</v>
@@ -10541,7 +14129,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -10571,7 +14159,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -10598,7 +14186,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -10637,7 +14225,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>3.5999999999999997E-2</v>
@@ -10666,7 +14254,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>0.09</v>
@@ -10695,7 +14283,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>0.15</v>
@@ -10724,7 +14312,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>0.186</v>
@@ -10753,7 +14341,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>0.216</v>
@@ -10815,7 +14403,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -10854,7 +14442,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3">
         <v>3.2000000000000001E-2</v>
@@ -10883,7 +14471,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3">
         <v>0.124</v>
@@ -10912,7 +14500,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3">
         <v>0.17</v>
@@ -10941,7 +14529,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3">
         <v>0.214</v>
@@ -10970,7 +14558,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3">
         <v>0.246</v>
@@ -11032,7 +14620,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -11071,7 +14659,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3">
         <v>3.2000000000000001E-2</v>
@@ -11100,7 +14688,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3">
         <v>8.5999999999999993E-2</v>
@@ -11129,7 +14717,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3">
         <v>0.128</v>
@@ -11158,7 +14746,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3">
         <v>0.16800000000000001</v>
@@ -11187,7 +14775,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="3">
         <v>0.192</v>
@@ -11262,7 +14850,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -11301,7 +14889,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
@@ -11330,7 +14918,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>4.2000000000000003E-2</v>
@@ -11359,7 +14947,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>7.8E-2</v>
@@ -11388,7 +14976,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>0.11</v>
@@ -11417,7 +15005,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>0.126</v>
@@ -11479,7 +15067,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -11518,7 +15106,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3">
         <v>6.0000000000000001E-3</v>
@@ -11547,7 +15135,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3">
         <v>5.6000000000000001E-2</v>
@@ -11576,7 +15164,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3">
         <v>0.108</v>
@@ -11605,7 +15193,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3">
         <v>0.14199999999999999</v>
@@ -11634,7 +15222,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3">
         <v>0.16400000000000001</v>
@@ -11696,7 +15284,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -11735,7 +15323,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3">
         <v>1.4E-2</v>
@@ -11764,7 +15352,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3">
         <v>5.1999999999999998E-2</v>
@@ -11793,7 +15381,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3">
         <v>7.5999999999999998E-2</v>
@@ -11822,7 +15410,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3">
         <v>0.1</v>
@@ -11851,7 +15439,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="3">
         <v>0.126</v>
@@ -11926,7 +15514,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -11965,7 +15553,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>0.06</v>
@@ -11994,7 +15582,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>0.09</v>
@@ -12023,7 +15611,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>0.17199999999999999</v>
@@ -12052,7 +15640,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
         <v>0.24</v>
@@ -12081,7 +15669,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>0.32200000000000001</v>
@@ -12143,7 +15731,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -12182,7 +15770,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>0.05</v>
@@ -12211,7 +15799,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>8.4000000000000005E-2</v>
@@ -12240,7 +15828,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>0.13600000000000001</v>
@@ -12269,7 +15857,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>0.20599999999999999</v>
@@ -12298,7 +15886,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>0.27800000000000002</v>
@@ -12360,7 +15948,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -12399,7 +15987,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3">
         <v>3.4000000000000002E-2</v>
@@ -12428,7 +16016,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3">
         <v>5.8000000000000003E-2</v>
@@ -12457,7 +16045,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3">
         <v>0.1</v>
@@ -12486,7 +16074,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="3">
         <v>0.14599999999999999</v>
@@ -12515,7 +16103,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3">
         <v>0.21199999999999999</v>
@@ -12590,7 +16178,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -12629,7 +16217,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>4.8000000000000001E-2</v>
@@ -12658,7 +16246,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>0.08</v>
@@ -12687,7 +16275,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>0.16400000000000001</v>
@@ -12716,7 +16304,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
         <v>0.24199999999999999</v>
@@ -12745,7 +16333,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>0.33800000000000002</v>
@@ -12807,7 +16395,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -12846,7 +16434,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>2.4E-2</v>
@@ -12875,7 +16463,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>5.8000000000000003E-2</v>
@@ -12904,7 +16492,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>0.10199999999999999</v>
@@ -12933,7 +16521,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>0.17799999999999999</v>
@@ -12962,7 +16550,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>0.24</v>
@@ -13024,7 +16612,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -13063,7 +16651,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3">
         <v>2.1999999999999999E-2</v>
@@ -13092,7 +16680,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3">
         <v>4.3999999999999997E-2</v>
@@ -13121,7 +16709,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3">
         <v>7.8E-2</v>
@@ -13150,7 +16738,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="3">
         <v>0.122</v>
@@ -13179,7 +16767,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3">
         <v>0.188</v>

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAFD661-B548-144F-8980-AAF28B70501B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74C5B46-565D-A342-BD9A-BDDC9F1AFBB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -242,12 +242,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,6 +298,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9576,6 +9576,1188 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>wall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>street</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72DB-4849-BE80-CEFF4C7C2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72DB-4849-BE80-CEFF4C7C2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72DB-4849-BE80-CEFF4C7C2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-72DB-4849-BE80-CEFF4C7C2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-72DB-4849-BE80-CEFF4C7C2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-72DB-4849-BE80-CEFF4C7C2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-72DB-4849-BE80-CEFF4C7C2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-72DB-4849-BE80-CEFF4C7C2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Turns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-72DB-4849-BE80-CEFF4C7C2E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="191504912"/>
+        <c:axId val="189682736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="191504912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189682736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="189682736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="191504912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9617,6 +10799,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10688,6 +11910,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -10978,6 +12716,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565AD327-8C62-844B-B6AF-C068EC87FF6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11285,7 +13059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -11295,1391 +13069,1391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>50</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.114</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.186</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0.246</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>60</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>0.01</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>70</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.108</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.46400000000000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.61599999999999999</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.72</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>75</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.216</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.65200000000000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.878</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>80</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.70199999999999996</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.88600000000000001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.95399999999999996</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>90</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>0.74199999999999999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0.97199999999999998</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>0.996</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>0.98</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>100</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>0.996</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>0.998</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>0.126</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0.30399999999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>0.46400000000000002</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.56200000000000006</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>0.65400000000000003</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>0.71799999999999997</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>0.75</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>15</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>20</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>25</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>30</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>35</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>50</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>0.188</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>0.42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>60</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>0.124</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>0.24399999999999999</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>0.37</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>0.61599999999999999</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>70</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>0.02</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>0.12</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>0.6</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>0.746</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>0.88800000000000001</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>75</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>0.246</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>0.52</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>0.73399999999999999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="15">
         <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>80</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>0.106</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>0.752</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>0.98</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>0.99</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>90</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>0.85799999999999998</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>0.99</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>100</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>0.59399999999999997</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>0.996</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>0.996</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>0.998</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>0.996</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="16">
         <v>0.124</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <v>0.374</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="16">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>0.72199999999999998</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="16">
         <v>0.94599999999999995</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="16">
         <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>5</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>15</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>20</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>25</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <v>30</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <v>35</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>50</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>0.01</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>0.128</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="3">
         <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>60</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>0.112</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <v>0.316</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>0.41199999999999998</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="3">
         <v>0.54</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="3">
         <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>70</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>0.03</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>0.46600000000000003</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>0.63600000000000001</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>0.77</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="3">
         <v>0.83199999999999996</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="3">
         <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>75</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>0.38800000000000001</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="3">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="3">
         <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>80</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>0.26</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>0.59599999999999997</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>0.91800000000000004</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>90</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>0.83599999999999997</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>0.98199999999999998</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>100</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>0.378</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>0.83399999999999996</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>0.998</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>0.998</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>0.996</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>0.16600000000000001</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>0.38800000000000001</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>0.59599999999999997</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="4">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="4">
         <v>0.878</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="4">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="4">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="4">
         <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>10</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>15</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>20</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>25</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="1">
         <v>30</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="1">
         <v>35</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>50</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="3">
         <v>0.06</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="3">
         <v>0.09</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="3">
         <v>0.18</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="3">
         <v>0.218</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>60</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="3">
         <v>0.2</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="3">
         <v>0.34</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="3">
         <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>70</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>0.11</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>0.21</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="3">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <v>0.61</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="3">
         <v>0.67400000000000004</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="3">
         <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>75</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="3">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="3">
         <v>0.746</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="3">
         <v>0.82</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="3">
         <v>0.84</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>80</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>0.04</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>0.224</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="3">
         <v>0.628</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="3">
         <v>0.72</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="3">
         <v>0.77</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="3">
         <v>0.86</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>90</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>0.69</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="3">
         <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>100</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>0.79400000000000004</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="3">
         <v>0.874</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="3">
         <v>0.89600000000000002</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="3">
         <v>0.91800000000000004</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="3">
         <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="4">
         <v>0.04</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="4">
         <v>0.08</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>0.16800000000000001</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="4">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="4">
         <v>0.318</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="4">
         <v>0.40400000000000003</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="4">
         <v>0.48199999999999998</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="4">
         <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22">
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20">
         <v>5</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="20">
         <v>10</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="20">
         <v>15</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="20">
         <v>20</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="20">
         <v>25</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="20">
         <v>30</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="20">
         <v>35</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="20">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="19">
+      <c r="A57" s="17">
         <v>50</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="18">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="18">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="18">
         <v>0.05</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="18">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="18">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="18">
         <v>0.16400000000000001</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="18">
         <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="19">
+      <c r="A58" s="17">
         <v>60</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="18">
         <v>1.2E-2</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <v>0.104</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="18">
         <v>0.184</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="18">
         <v>0.26200000000000001</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="18">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="18">
         <v>0.44400000000000001</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="18">
         <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="19">
+      <c r="A59" s="17">
         <v>70</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="18">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>0.124</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>0.33200000000000002</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="18">
         <v>0.69799999999999995</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="18">
         <v>0.80200000000000005</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="18">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="18">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="19">
+      <c r="A60" s="17">
         <v>75</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="3">
         <v>0.224</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="3">
         <v>0.45</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="3">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="3">
         <v>0.86</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="3">
         <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="19">
+      <c r="A61" s="17">
         <v>80</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="3">
         <v>0.626</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="3">
         <v>0.8</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="3">
         <v>0.88200000000000001</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="3">
         <v>0.94599999999999995</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="3">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="3">
         <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="19">
+      <c r="A62" s="17">
         <v>90</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="3">
         <v>0.19800000000000001</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="3">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="3">
         <v>0.87</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="3">
         <v>0.95399999999999996</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="3">
         <v>0.996</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="19">
+      <c r="A63" s="17">
         <v>100</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="3">
         <v>0.45</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="3">
         <v>0.85</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="3">
         <v>0.998</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="3">
         <v>0.998</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="3">
         <v>0.998</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="3">
         <v>0.998</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="3">
         <v>0.99</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="21">
         <v>0.13</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="21">
         <v>0.35599999999999998</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="21">
         <v>0.55400000000000005</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="21">
         <v>0.69799999999999995</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="21">
         <v>0.78</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="21">
         <v>0.83</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="21">
         <v>0.878</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="21">
         <v>0.91800000000000004</v>
       </c>
     </row>
@@ -12701,8 +14475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12711,1313 +14485,1361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>50</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>60</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>70</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.128</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.32400000000000001</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>0.41599999999999998</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.496</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>75</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.02</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>80</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.83199999999999996</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>90</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>0.59</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.85799999999999998</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>0.97</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>100</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>0.42199999999999999</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.96</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>0.99</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>0.98</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>7.8E-2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>0.33400000000000002</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>0.47799999999999998</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>0.61599999999999999</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>10</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>15</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>25</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>30</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>35</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>50</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>2E-3</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>60</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>70</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>0.01</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>0.02</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>0.26200000000000001</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>0.36799999999999999</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>0.49199999999999999</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>75</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>0.02</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>0.108</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>0.23599999999999999</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>0.54400000000000004</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>0.62</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>0.68200000000000005</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>80</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.95599999999999996</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>90</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="B23" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.96599999999999997</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>100</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="3">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.98399999999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <v>0.224</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>0.376</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>0.502</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="14">
         <v>0.64200000000000002</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="14">
         <v>0.72599999999999998</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="14">
         <v>0.77</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="14">
         <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="21">
         <v>0</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="21">
         <v>6.2E-2</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>0.1</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="21">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="21">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="21">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="21">
         <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>10</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>15</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>20</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>25</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="1">
         <v>30</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <v>35</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>50</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>0</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <v>0</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>60</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>0</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>0.04</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>0.06</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>70</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>0.316</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>75</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>0.19</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>80</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>0.36</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>0.85799999999999998</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>90</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>0.126</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>0.5</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>0.872</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>0.94199999999999995</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>100</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>0.29599999999999999</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <v>0.95</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="3">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="3">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="3">
         <v>0.97</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="11">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="11">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="11">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="11">
         <v>0.624</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <v>0.75600000000000001</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="11">
         <v>0.82</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="11">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="21">
         <v>1.2E-2</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="21">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="21">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="21">
         <v>0.08</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="21">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="21">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="21">
         <v>0.246</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>5</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>10</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>15</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="1">
         <v>20</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="1">
         <v>25</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="1">
         <v>30</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="1">
         <v>35</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>0</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>0</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>0</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="3">
         <v>0</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="3">
         <v>2E-3</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="3">
         <v>0</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>60</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>0</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>2E-3</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>70</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="3">
         <v>0.21</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="3">
         <v>0.34599999999999997</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="3">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>75</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="3">
         <v>0.156</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="3">
         <v>0.27200000000000002</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="3">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="3">
         <v>0.68</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>80</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="3">
         <v>0.27800000000000002</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="3">
         <v>0.41</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="3">
         <v>0.52</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="3">
         <v>0.66200000000000003</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="3">
         <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>90</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="3">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="3">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="3">
         <v>0.77800000000000002</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="3">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="3">
         <v>0.872</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="3">
         <v>0.88</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>100</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>0.20799999999999999</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>0.56200000000000006</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="3">
         <v>0.73</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="3">
         <v>0.876</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="3">
         <v>0.91</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="3">
         <v>0.93</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="3">
         <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="4">
         <v>0.11</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="4">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="4">
         <v>0.17399999999999999</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="4">
         <v>0.214</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>0</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="9">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="9">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="9">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="9">
         <v>0.16</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="9">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="9">
         <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <v>5</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>10</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="1">
         <v>15</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="1">
         <v>20</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="1">
         <v>25</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="1">
         <v>30</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="1">
         <v>35</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>50</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>60</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>70</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>75</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>80</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>90</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>100</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="14">
         <v>0.09</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="14">
         <v>0.252</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="14">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="14">
         <v>0.58599999999999997</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="14">
         <v>0.70399999999999996</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="14">
         <v>0.75600000000000001</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H74" s="14">
         <v>0.79</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="14">
         <v>0.81</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="23">
+      <c r="B75" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="21">
         <v>1.2E-2</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="21">
         <v>0.03</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="21">
         <v>0.06</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="21">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="21">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="21">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I75" s="23">
+      <c r="I75" s="21">
         <v>0.24399999999999999</v>
       </c>
     </row>
@@ -14052,296 +15874,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="14">
+      <c r="B1" s="12">
         <v>5</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="12">
         <v>10</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="12">
         <v>15</v>
       </c>
-      <c r="E1" s="14">
+      <c r="E1" s="12">
         <v>20</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="12">
         <v>25</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="12">
         <v>30</v>
       </c>
-      <c r="H1" s="14">
+      <c r="H1" s="12">
         <v>35</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="12">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>2E-3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>0.108</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>0.188</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>0.26</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.08</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>0.246</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.16</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>10</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>15</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>20</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>25</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>30</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>35</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <v>40</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>0</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>6.2E-2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>0.1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>0.41199999999999998</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>0.08</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <v>0.246</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <v>0.16</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>0.03</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>0.06</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <v>0.24399999999999999</v>
       </c>
     </row>
@@ -14369,644 +16191,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>0.216</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.65200000000000002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.878</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>0.94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>0.09</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0.39</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>0.67</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0.15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.746</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.91</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.186</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>0.216</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.998</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>0.38800000000000001</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>0.124</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>0.65400000000000003</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>0.84</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>0.94</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>0.98399999999999999</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>0.17</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>0.46400000000000002</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>0.746</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>0.89600000000000002</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>0.214</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>0.51200000000000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>0.78600000000000003</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>0.998</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>0.246</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>0.746</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>0.82</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>0.84</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>0.57599999999999996</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>0.73399999999999999</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>0.82199999999999995</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>0.89400000000000002</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>0.90800000000000003</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>0.128</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>0.41</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>0.64800000000000002</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>0.78200000000000003</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>0.69199999999999995</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>0.87</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>0.90800000000000003</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>0.192</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>0.498</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>0.72599999999999998</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>0.88</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>0.92</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15033,644 +16855,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0.02</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.20399999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.48799999999999999</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>0.36599999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.57199999999999995</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.47399999999999998</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>0.95</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.55600000000000005</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.76</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>0.126</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>0.97</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>0.19</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>0.48599999999999999</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>0.374</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>0.55200000000000005</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>0.72</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>0.89</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>0.108</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>0.25600000000000001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>0.64</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>0.876</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>0.97</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>0.14199999999999999</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>0.49399999999999999</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>0.69399999999999995</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>0.83799999999999997</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>0.54</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>0.72</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>0.86599999999999999</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>0.156</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>0.27200000000000002</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>0.61799999999999999</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>0.68</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>0.16400000000000001</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>0.496</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>0.622</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>0.72799999999999998</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>0.81</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>0.85</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>0.69399999999999995</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>0.81200000000000006</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>0.84799999999999998</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>0.89</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>0.1</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>0.27</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>0.47599999999999998</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>0.63</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>0.73799999999999999</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>0.82799999999999996</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>0.874</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>0.91</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>0.126</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>0.51800000000000002</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>0.84599999999999997</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <v>0.92</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15697,644 +17519,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0.06</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.84799999999999998</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>0.09</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0.27200000000000002</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>0.53600000000000003</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.72199999999999998</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.85399999999999998</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.314</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.56799999999999995</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.74399999999999999</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.86799999999999999</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.24</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.39</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.62</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.77800000000000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.878</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.94199999999999995</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>0.32200000000000001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.79</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>0.05</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>0.64</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>0.81399999999999995</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>0.438</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>0.65600000000000003</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>0.94</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>0.67</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>0.94799999999999995</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>0.68799999999999994</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>0.86</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>0.95399999999999996</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>0.98</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>0.27800000000000002</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>0.73</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>0.88800000000000001</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>0.98</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>0.18</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>0.39</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>0.58199999999999996</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>0.78400000000000003</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>0.89200000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>0.21</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>0.434</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>0.60599999999999998</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>0.83199999999999996</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>0.874</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>0.91</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>0.1</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>0.23799999999999999</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>0.47199999999999998</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>0.65</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>0.78600000000000003</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>0.85</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>0.27600000000000002</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>0.51400000000000001</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>0.67</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>0.80600000000000005</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>0.872</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>0.21199999999999999</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>0.33600000000000002</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>0.55200000000000005</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>0.70399999999999996</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>0.82</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>0.88200000000000001</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>0.93</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16361,644 +18183,644 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>0.1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.26400000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.41399999999999998</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.69199999999999995</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0.79</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>0.08</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>0.31</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.60199999999999998</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.874</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.36199999999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.48</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.622</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.72399999999999998</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.24199999999999999</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.54</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.65600000000000003</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.746</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.84599999999999997</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.69199999999999995</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>0.86399999999999999</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>20</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>25</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>30</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>0.128</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>0.56599999999999995</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>0.69199999999999995</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>0.16</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>0.436</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>0.59199999999999997</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>0.73199999999999998</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>0.80800000000000005</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>0.30199999999999999</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>0.46200000000000002</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>0.76800000000000002</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>0.83</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>0.374</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>0.52600000000000002</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>0.68200000000000005</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>0.79400000000000004</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>0.85399999999999998</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>0.24</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>0.44</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>0.6</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>0.73199999999999998</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>0.81799999999999995</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>0.876</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>15</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>20</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>25</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>35</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>0.184</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>0.33200000000000002</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>0.46600000000000003</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>0.58199999999999996</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>0.24</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>0.51800000000000002</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>0.628</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>0.41799999999999998</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>0.65200000000000002</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>0.76</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>0.122</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>0.192</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>0.33200000000000002</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>0.45400000000000001</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>0.58799999999999997</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>0.7</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>0.79</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>0.188</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>0.25</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>0.376</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>0.51400000000000001</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>0.63400000000000001</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>0.73599999999999999</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>0.81</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74C5B46-565D-A342-BD9A-BDDC9F1AFBB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E305C10-11E2-DA45-BE61-34326306EFD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -22,6 +22,116 @@
     <sheet name=" BSD_dist" sheetId="7" r:id="rId7"/>
     <sheet name="ES" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'BSD_T_length '!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'BSD_T_length '!$A$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'BSD_T_length '!$B$3:$I$3</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">BSD_length!$B$52:$I$52</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">BSD_length!$B$53:$I$53</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">BSD_length!$B$54:$I$54</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">BSD_length!$B$55:$I$55</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">BSD_length!$B$56:$I$56</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">BSD_length!$B$57:$I$57</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">BSD_length!$B$58:$I$58</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">BSD_length!$B$59:$I$59</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'BSD_T_length '!$B$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'BSD_T_length '!$B$5:$I$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'BSD_T_length '!$B$6:$I$6</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'BSD_T_length '!$B$7:$I$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'BSD_T_length '!$B$8:$I$8</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'BSD_T_length '!$B$9:$I$9</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'BSD_T_length '!$A$10</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'BSD_T_length '!$A$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'BSD_T_length '!$A$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'BSD_T_length '!$A$4</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'BSD_T_length '!$A$5</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'BSD_T_length '!$A$6</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'BSD_T_length '!$A$7</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'BSD_T_length '!$A$8</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'BSD_T_length '!$A$9</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'BSD_T_length '!$B$10:$I$10</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'BSD_T_length '!$B$2:$I$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'BSD_T_length '!$B$3:$I$3</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'BSD_T_length '!$B$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'BSD_T_length '!$B$5:$I$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'BSD_T_length '!$A$5</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'BSD_T_length '!$B$6:$I$6</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'BSD_T_length '!$B$7:$I$7</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'BSD_T_length '!$B$8:$I$8</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'BSD_T_length '!$B$9:$I$9</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'BSD_T_length '!$A$10</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'BSD_T_length '!$A$3</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'BSD_T_length '!$A$4</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'BSD_T_length '!$A$5</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'BSD_T_length '!$A$6</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'BSD_T_length '!$A$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'BSD_T_length '!$A$6</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'BSD_T_length '!$A$8</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'BSD_T_length '!$A$9</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'BSD_T_length '!$B$10:$I$10</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'BSD_T_length '!$B$2:$I$2</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'BSD_T_length '!$B$3:$I$3</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'BSD_T_length '!$B$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'BSD_T_length '!$B$5:$I$5</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'BSD_T_length '!$B$6:$I$6</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'BSD_T_length '!$B$7:$I$7</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'BSD_T_length '!$B$8:$I$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'BSD_T_length '!$A$7</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'BSD_T_length '!$B$9:$I$9</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">BSD_length!$A$51</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">BSD_length!$A$52</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">BSD_length!$A$53</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">BSD_length!$A$54</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">BSD_length!$A$55</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">BSD_length!$A$56</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">BSD_length!$A$57</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">BSD_length!$A$58</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">BSD_length!$A$59</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'BSD_T_length '!$A$8</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">BSD_length!$B$50:$I$50</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">BSD_length!$B$51:$I$51</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">BSD_length!$B$52:$I$52</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">BSD_length!$B$53:$I$53</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">BSD_length!$B$54:$I$54</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">BSD_length!$B$55:$I$55</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">BSD_length!$B$56:$I$56</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">BSD_length!$B$57:$I$57</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">BSD_length!$B$58:$I$58</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">BSD_length!$B$59:$I$59</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'BSD_T_length '!$A$9</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">BSD_length!$A$51</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">BSD_length!$A$52</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">BSD_length!$A$53</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">BSD_length!$A$54</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">BSD_length!$A$55</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">BSD_length!$A$56</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">BSD_length!$A$57</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">BSD_length!$A$58</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">BSD_length!$A$59</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">BSD_length!$B$50:$I$50</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'BSD_T_length '!$B$10:$I$10</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">BSD_length!$B$51:$I$51</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">BSD_length!$B$52:$I$52</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">BSD_length!$B$53:$I$53</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">BSD_length!$B$54:$I$54</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">BSD_length!$B$55:$I$55</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">BSD_length!$B$56:$I$56</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">BSD_length!$B$57:$I$57</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">BSD_length!$B$58:$I$58</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">BSD_length!$B$59:$I$59</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">BSD_length!$A$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'BSD_T_length '!$B$2:$I$2</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">BSD_length!$A$52</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">BSD_length!$A$53</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">BSD_length!$A$54</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">BSD_length!$A$55</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">BSD_length!$A$56</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">BSD_length!$A$57</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">BSD_length!$A$58</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">BSD_length!$A$59</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">BSD_length!$B$50:$I$50</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">BSD_length!$B$51:$I$51</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>wall street with turns</t>
   </si>
@@ -71,9 +181,6 @@
   </si>
   <si>
     <t>turns</t>
-  </si>
-  <si>
-    <t>hudsonriver without turns</t>
   </si>
   <si>
     <t>old test routes</t>
@@ -132,12 +239,18 @@
   <si>
     <t>500m</t>
   </si>
+  <si>
+    <t>husdon river validation (new test routes)</t>
+  </si>
+  <si>
+    <t>hudsonriver without turns (new test routes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -154,13 +267,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF800000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF800000"/>
       <name val="Calibri"/>
@@ -261,26 +367,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -304,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1549,6 +1655,1185 @@
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>husdon river</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$72:$I$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A618-FB41-8FC0-334E6BC03445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$73:$I$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A618-FB41-8FC0-334E6BC03445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$74:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A618-FB41-8FC0-334E6BC03445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$75:$I$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A618-FB41-8FC0-334E6BC03445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$76:$I$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A618-FB41-8FC0-334E6BC03445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$77:$I$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A618-FB41-8FC0-334E6BC03445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$78:$I$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A618-FB41-8FC0-334E6BC03445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$71:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$79:$I$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A618-FB41-8FC0-334E6BC03445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="757670303"/>
+        <c:axId val="732744767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="757670303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732744767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="732744767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757670303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5084,7 +6369,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$57</c:f>
+              <c:f>'BSD_T_length '!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5107,7 +6392,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
+              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5140,7 +6425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$57:$I$57</c:f>
+              <c:f>'BSD_T_length '!$B$61:$I$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5183,7 +6468,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$58</c:f>
+              <c:f>'BSD_T_length '!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5206,7 +6491,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
+              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5239,7 +6524,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$58:$I$58</c:f>
+              <c:f>'BSD_T_length '!$B$62:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5282,7 +6567,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$59</c:f>
+              <c:f>'BSD_T_length '!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5305,7 +6590,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
+              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5338,7 +6623,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$59:$I$59</c:f>
+              <c:f>'BSD_T_length '!$B$63:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5381,7 +6666,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$60</c:f>
+              <c:f>'BSD_T_length '!$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5404,7 +6689,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
+              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5437,7 +6722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
+              <c:f>'BSD_T_length '!$B$64:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5480,7 +6765,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$61</c:f>
+              <c:f>'BSD_T_length '!$A$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5503,7 +6788,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
+              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5536,7 +6821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$61:$I$61</c:f>
+              <c:f>'BSD_T_length '!$B$65:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5579,7 +6864,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$62</c:f>
+              <c:f>'BSD_T_length '!$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5602,7 +6887,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
+              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5635,7 +6920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$62:$I$62</c:f>
+              <c:f>'BSD_T_length '!$B$66:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5678,7 +6963,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$63</c:f>
+              <c:f>'BSD_T_length '!$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5703,7 +6988,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
+              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5736,7 +7021,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$63:$I$63</c:f>
+              <c:f>'BSD_T_length '!$B$67:$I$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5779,7 +7064,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BSD_T_length '!$A$64</c:f>
+              <c:f>'BSD_T_length '!$A$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5802,7 +7087,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$56:$I$56</c:f>
+              <c:f>'BSD_T_length '!$B$60:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5835,7 +7120,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BSD_T_length '!$B$64:$I$64</c:f>
+              <c:f>'BSD_T_length '!$B$68:$I$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8254,6 +9539,96 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Turns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$42:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DB7-924F-B25B-63F0CA56EF72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -9418,6 +10793,96 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-9659-FF44-8A97-408C8DF11E8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>turns</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8ADC-074C-8946-1E47CF2813BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10839,6 +12304,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12426,6 +13931,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -12576,13 +14584,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12690,13 +14698,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>6120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>6280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>436680</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>145240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12752,6 +14760,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF8B097-CF90-AD4C-A986-12D346E575AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13057,10 +15101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13069,17 +15113,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -13340,17 +15384,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -13469,28 +15513,28 @@
       <c r="A19" s="2">
         <v>75</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>0.246</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>0.52</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>0.73399999999999999</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14">
         <v>0.96199999999999997</v>
       </c>
     </row>
@@ -13585,28 +15629,28 @@
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>0.124</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>0.374</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>0.72199999999999998</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>0.94599999999999995</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>0.96199999999999997</v>
       </c>
     </row>
@@ -13632,7 +15676,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -13644,17 +15688,17 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
@@ -13915,17 +15959,17 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
@@ -14185,284 +16229,339 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>75</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.152</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.312</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19">
         <v>5</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C60" s="19">
         <v>10</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D60" s="19">
         <v>15</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E60" s="19">
         <v>20</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F60" s="19">
         <v>25</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G60" s="19">
         <v>30</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H60" s="19">
         <v>35</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I60" s="19">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="17">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
         <v>50</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B61" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C61" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D61" s="17">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E61" s="17">
         <v>0.05</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F61" s="17">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G61" s="17">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H61" s="17">
         <v>0.16400000000000001</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I61" s="17">
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="17">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
         <v>60</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B62" s="17">
         <v>1.2E-2</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C62" s="17">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D62" s="17">
         <v>0.104</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E62" s="17">
         <v>0.184</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F62" s="17">
         <v>0.26200000000000001</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G62" s="17">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H62" s="17">
         <v>0.44400000000000001</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I62" s="17">
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="17">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
         <v>70</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B63" s="17">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C63" s="17">
         <v>0.124</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D63" s="17">
         <v>0.33200000000000002</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E63" s="17">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F63" s="17">
         <v>0.69799999999999995</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G63" s="17">
         <v>0.80200000000000005</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H63" s="17">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I63" s="17">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="17">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
         <v>75</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B64" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C64" s="3">
         <v>0.224</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D64" s="3">
         <v>0.45</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E64" s="3">
         <v>0.63200000000000001</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F64" s="3">
         <v>0.77200000000000002</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G64" s="3">
         <v>0.86</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H64" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I64" s="3">
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="17">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
         <v>80</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B65" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C65" s="3">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D65" s="3">
         <v>0.626</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E65" s="3">
         <v>0.8</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F65" s="3">
         <v>0.88200000000000001</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G65" s="3">
         <v>0.94599999999999995</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H65" s="3">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I65" s="3">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="17">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
         <v>90</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B66" s="3">
         <v>0.19800000000000001</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C66" s="3">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D66" s="3">
         <v>0.87</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E66" s="3">
         <v>0.95399999999999996</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F66" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G66" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H66" s="3">
         <v>0.996</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I66" s="3">
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="17">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
         <v>100</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B67" s="3">
         <v>0.45</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C67" s="3">
         <v>0.85</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D67" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E67" s="3">
         <v>0.998</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F67" s="3">
         <v>0.998</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G67" s="3">
         <v>0.998</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H67" s="3">
         <v>0.998</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I67" s="3">
         <v>0.99</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B68" s="23">
         <v>0.13</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C68" s="23">
         <v>0.35599999999999998</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D68" s="23">
         <v>0.55400000000000005</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E68" s="23">
         <v>0.69799999999999995</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F68" s="23">
         <v>0.78</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G68" s="23">
         <v>0.83</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H68" s="23">
         <v>0.878</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I68" s="23">
         <v>0.91800000000000004</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B59:I59"/>
     <mergeCell ref="B55:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14473,10 +16572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14485,17 +16584,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -14730,43 +16829,43 @@
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>7.8E-2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0.33400000000000002</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>0.40400000000000003</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>0.47799999999999998</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>0.61599999999999999</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
@@ -14998,75 +17097,75 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>0.224</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>0.376</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>0.502</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>0.64200000000000002</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>0.72599999999999998</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>0.77</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>0</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>6.2E-2</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>0.1</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="20">
         <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
@@ -15298,75 +17397,75 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>0.45600000000000002</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>0.624</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>0.75600000000000001</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>0.82</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="10">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>1.2E-2</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="20">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>0.08</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="20">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="20">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="20">
         <v>0.246</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
@@ -15627,229 +17726,397 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="20">
         <v>0</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="20">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="20">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="20">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="20">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="20">
         <v>0.16</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="20">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="20">
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="1">
+    <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+    </row>
+    <row r="65" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>75</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C65" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
         <v>5</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C71" s="1">
         <v>10</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D71" s="1">
         <v>15</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E71" s="1">
         <v>20</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F71" s="1">
         <v>25</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G71" s="1">
         <v>30</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H71" s="1">
         <v>35</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I71" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="72" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>50</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>60</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>70</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>75</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>80</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>90</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
+        <v>60</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D73" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F73" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H73" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I73" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C74" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.442</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>75</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C75" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>90</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>100</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
+      <c r="B78" s="3">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B79" s="13">
         <v>0.09</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C79" s="13">
         <v>0.252</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D79" s="13">
         <v>0.44400000000000001</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E79" s="13">
         <v>0.58599999999999997</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F79" s="13">
         <v>0.70399999999999996</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G79" s="13">
         <v>0.75600000000000001</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H79" s="13">
         <v>0.79</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I79" s="13">
         <v>0.81</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="21" t="s">
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B80" s="20">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C80" s="20">
         <v>1.2E-2</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D80" s="20">
         <v>0.03</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E80" s="20">
         <v>0.06</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F80" s="20">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G80" s="20">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H75" s="21">
+      <c r="H80" s="20">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I75" s="21">
+      <c r="I80" s="20">
         <v>0.24399999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="B64:I64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15874,37 +18141,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="12">
+      <c r="B1" s="11">
         <v>5</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="11">
         <v>10</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>15</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>20</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>25</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>30</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="11">
         <v>35</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>40</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>14</v>
+      <c r="J1" s="22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>2E-3</v>
@@ -15930,11 +18197,11 @@
       <c r="I2" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>4.0000000000000001E-3</v>
@@ -15960,11 +18227,11 @@
       <c r="I3" s="3">
         <v>0.246</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -15990,10 +18257,10 @@
       <c r="I4" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -16005,7 +18272,7 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -16017,153 +18284,153 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>10</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>15</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>20</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>25</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>30</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>35</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>40</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>18</v>
+      <c r="J10" s="22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8">
         <v>0</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>0.1</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>0.41199999999999998</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>0.08</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0.246</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
         <v>0</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>0.16</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>0.03</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>0.06</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>0.24399999999999999</v>
       </c>
     </row>
@@ -16182,7 +18449,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16191,17 +18458,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -16231,7 +18498,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>3.5999999999999997E-2</v>
@@ -16260,7 +18527,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>0.09</v>
@@ -16289,7 +18556,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0.15</v>
@@ -16318,7 +18585,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>0.186</v>
@@ -16347,7 +18614,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
         <v>0.216</v>
@@ -16408,17 +18675,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -16448,7 +18715,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>3.2000000000000001E-2</v>
@@ -16477,7 +18744,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
         <v>0.124</v>
@@ -16506,7 +18773,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
         <v>0.17</v>
@@ -16535,7 +18802,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3">
         <v>0.214</v>
@@ -16564,7 +18831,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3">
         <v>0.246</v>
@@ -16625,17 +18892,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="A33" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -16665,7 +18932,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3">
         <v>3.2000000000000001E-2</v>
@@ -16694,7 +18961,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3">
         <v>8.5999999999999993E-2</v>
@@ -16723,7 +18990,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3">
         <v>0.128</v>
@@ -16752,7 +19019,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="3">
         <v>0.16800000000000001</v>
@@ -16781,7 +19048,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0.192</v>
@@ -16855,17 +19122,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -16895,7 +19162,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
@@ -16924,7 +19191,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>4.2000000000000003E-2</v>
@@ -16953,7 +19220,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>7.8E-2</v>
@@ -16982,7 +19249,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>0.11</v>
@@ -17011,7 +19278,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
         <v>0.126</v>
@@ -17072,17 +19339,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -17112,7 +19379,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>6.0000000000000001E-3</v>
@@ -17141,7 +19408,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
         <v>5.6000000000000001E-2</v>
@@ -17170,7 +19437,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
         <v>0.108</v>
@@ -17199,7 +19466,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3">
         <v>0.14199999999999999</v>
@@ -17228,7 +19495,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3">
         <v>0.16400000000000001</v>
@@ -17289,17 +19556,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="A33" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -17329,7 +19596,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3">
         <v>1.4E-2</v>
@@ -17358,7 +19625,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3">
         <v>5.1999999999999998E-2</v>
@@ -17387,7 +19654,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3">
         <v>7.5999999999999998E-2</v>
@@ -17416,7 +19683,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="3">
         <v>0.1</v>
@@ -17445,7 +19712,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0.126</v>
@@ -17510,7 +19777,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17519,17 +19786,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -17559,7 +19826,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>0.06</v>
@@ -17588,7 +19855,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
         <v>0.09</v>
@@ -17617,7 +19884,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>0.17199999999999999</v>
@@ -17646,7 +19913,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3">
         <v>0.24</v>
@@ -17675,7 +19942,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3">
         <v>0.32200000000000001</v>
@@ -17736,17 +20003,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -17776,7 +20043,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3">
         <v>0.05</v>
@@ -17805,7 +20072,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
         <v>8.4000000000000005E-2</v>
@@ -17834,7 +20101,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3">
         <v>0.13600000000000001</v>
@@ -17863,7 +20130,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3">
         <v>0.20599999999999999</v>
@@ -17892,7 +20159,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>0.27800000000000002</v>
@@ -17953,17 +20220,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="A33" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -17993,7 +20260,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3">
         <v>3.4000000000000002E-2</v>
@@ -18022,7 +20289,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3">
         <v>5.8000000000000003E-2</v>
@@ -18051,7 +20318,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3">
         <v>0.1</v>
@@ -18080,7 +20347,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3">
         <v>0.14599999999999999</v>
@@ -18109,7 +20376,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3">
         <v>0.21199999999999999</v>
@@ -18183,17 +20450,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -18223,7 +20490,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>4.8000000000000001E-2</v>
@@ -18252,7 +20519,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
         <v>0.08</v>
@@ -18281,7 +20548,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>0.16400000000000001</v>
@@ -18310,7 +20577,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3">
         <v>0.24199999999999999</v>
@@ -18339,7 +20606,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3">
         <v>0.33800000000000002</v>
@@ -18400,17 +20667,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -18440,7 +20707,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3">
         <v>2.4E-2</v>
@@ -18469,7 +20736,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
         <v>5.8000000000000003E-2</v>
@@ -18498,7 +20765,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3">
         <v>0.10199999999999999</v>
@@ -18527,7 +20794,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3">
         <v>0.17799999999999999</v>
@@ -18556,7 +20823,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>0.24</v>
@@ -18617,17 +20884,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="A33" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -18657,7 +20924,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3">
         <v>2.1999999999999999E-2</v>
@@ -18686,7 +20953,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3">
         <v>4.3999999999999997E-2</v>
@@ -18715,7 +20982,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3">
         <v>7.8E-2</v>
@@ -18744,7 +21011,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3">
         <v>0.122</v>
@@ -18773,7 +21040,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3">
         <v>0.188</v>

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E305C10-11E2-DA45-BE61-34326306EFD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A4877-7FC3-B746-A0D8-0CB2B1784026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -22,117 +22,7 @@
     <sheet name=" BSD_dist" sheetId="7" r:id="rId7"/>
     <sheet name="ES" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'BSD_T_length '!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'BSD_T_length '!$A$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'BSD_T_length '!$B$3:$I$3</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">BSD_length!$B$52:$I$52</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">BSD_length!$B$53:$I$53</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">BSD_length!$B$54:$I$54</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">BSD_length!$B$55:$I$55</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">BSD_length!$B$56:$I$56</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">BSD_length!$B$57:$I$57</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">BSD_length!$B$58:$I$58</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">BSD_length!$B$59:$I$59</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'BSD_T_length '!$B$4:$I$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'BSD_T_length '!$B$5:$I$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'BSD_T_length '!$B$6:$I$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'BSD_T_length '!$B$7:$I$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'BSD_T_length '!$B$8:$I$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'BSD_T_length '!$B$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'BSD_T_length '!$A$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'BSD_T_length '!$A$3</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'BSD_T_length '!$A$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'BSD_T_length '!$A$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'BSD_T_length '!$A$5</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'BSD_T_length '!$A$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'BSD_T_length '!$A$7</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'BSD_T_length '!$A$8</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'BSD_T_length '!$A$9</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'BSD_T_length '!$B$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'BSD_T_length '!$B$2:$I$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'BSD_T_length '!$B$3:$I$3</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'BSD_T_length '!$B$4:$I$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'BSD_T_length '!$B$5:$I$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'BSD_T_length '!$A$5</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'BSD_T_length '!$B$6:$I$6</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'BSD_T_length '!$B$7:$I$7</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'BSD_T_length '!$B$8:$I$8</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'BSD_T_length '!$B$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'BSD_T_length '!$A$10</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'BSD_T_length '!$A$3</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'BSD_T_length '!$A$4</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'BSD_T_length '!$A$5</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'BSD_T_length '!$A$6</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'BSD_T_length '!$A$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'BSD_T_length '!$A$6</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'BSD_T_length '!$A$8</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'BSD_T_length '!$A$9</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'BSD_T_length '!$B$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'BSD_T_length '!$B$2:$I$2</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'BSD_T_length '!$B$3:$I$3</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'BSD_T_length '!$B$4:$I$4</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'BSD_T_length '!$B$5:$I$5</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'BSD_T_length '!$B$6:$I$6</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'BSD_T_length '!$B$7:$I$7</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'BSD_T_length '!$B$8:$I$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'BSD_T_length '!$A$7</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'BSD_T_length '!$B$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">BSD_length!$A$51</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">BSD_length!$A$52</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">BSD_length!$A$53</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">BSD_length!$A$54</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">BSD_length!$A$55</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">BSD_length!$A$56</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">BSD_length!$A$57</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">BSD_length!$A$58</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">BSD_length!$A$59</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'BSD_T_length '!$A$8</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">BSD_length!$B$50:$I$50</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">BSD_length!$B$51:$I$51</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">BSD_length!$B$52:$I$52</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">BSD_length!$B$53:$I$53</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">BSD_length!$B$54:$I$54</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">BSD_length!$B$55:$I$55</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">BSD_length!$B$56:$I$56</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">BSD_length!$B$57:$I$57</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">BSD_length!$B$58:$I$58</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">BSD_length!$B$59:$I$59</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'BSD_T_length '!$A$9</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">BSD_length!$A$51</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">BSD_length!$A$52</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">BSD_length!$A$53</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">BSD_length!$A$54</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">BSD_length!$A$55</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">BSD_length!$A$56</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">BSD_length!$A$57</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">BSD_length!$A$58</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">BSD_length!$A$59</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">BSD_length!$B$50:$I$50</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'BSD_T_length '!$B$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">BSD_length!$B$51:$I$51</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">BSD_length!$B$52:$I$52</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">BSD_length!$B$53:$I$53</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">BSD_length!$B$54:$I$54</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">BSD_length!$B$55:$I$55</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">BSD_length!$B$56:$I$56</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">BSD_length!$B$57:$I$57</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">BSD_length!$B$58:$I$58</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">BSD_length!$B$59:$I$59</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">BSD_length!$A$51</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'BSD_T_length '!$B$2:$I$2</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">BSD_length!$A$52</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">BSD_length!$A$53</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">BSD_length!$A$54</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">BSD_length!$A$55</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">BSD_length!$A$56</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">BSD_length!$A$57</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">BSD_length!$A$58</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">BSD_length!$A$59</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">BSD_length!$B$50:$I$50</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">BSD_length!$B$51:$I$51</definedName>
-  </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -142,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
   <si>
     <t>wall street with turns</t>
   </si>
@@ -245,12 +135,15 @@
   <si>
     <t>hudsonriver without turns (new test routes)</t>
   </si>
+  <si>
+    <t>BSD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -294,6 +187,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -346,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,14 +302,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15101,10 +15007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15113,17 +15019,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -15384,17 +15290,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -15655,15 +15561,33 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.122</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0.628</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0.73</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0.78200000000000003</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
@@ -15688,17 +15612,17 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
@@ -15958,18 +15882,47 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="C38" s="25">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0.192</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G38" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="H38" s="25">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I38" s="25">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
@@ -16229,19 +16182,48 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C52" s="25">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D52" s="25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E52" s="25">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F52" s="25">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G52" s="25">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="H52" s="25">
+        <v>0.374</v>
+      </c>
+      <c r="I52" s="25">
+        <v>0.436</v>
+      </c>
+    </row>
     <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
@@ -16285,16 +16267,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
     </row>
     <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
@@ -16530,29 +16512,58 @@
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="21">
         <v>0.13</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="21">
         <v>0.35599999999999998</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="21">
         <v>0.55400000000000005</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="21">
         <v>0.69799999999999995</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="21">
         <v>0.78</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="21">
         <v>0.83</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="21">
         <v>0.878</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="21">
         <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="25">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C69" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="D69" s="25">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E69" s="25">
+        <v>0.312</v>
+      </c>
+      <c r="F69" s="25">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G69" s="25">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H69" s="25">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="I69" s="25">
+        <v>0.628</v>
       </c>
     </row>
   </sheetData>
@@ -16584,17 +16595,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -16855,17 +16866,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
@@ -17155,17 +17166,17 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
@@ -17455,17 +17466,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
@@ -17757,16 +17768,16 @@
     <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
     </row>
     <row r="65" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
@@ -17810,17 +17821,17 @@
     </row>
     <row r="67" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
     </row>
     <row r="71" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
@@ -18165,7 +18176,7 @@
       <c r="I1" s="11">
         <v>40</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -18197,7 +18208,7 @@
       <c r="I2" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -18227,7 +18238,7 @@
       <c r="I3" s="3">
         <v>0.246</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -18257,7 +18268,7 @@
       <c r="I4" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
@@ -18311,7 +18322,7 @@
       <c r="I10" s="11">
         <v>40</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18343,7 +18354,7 @@
       <c r="I11" s="8">
         <v>0.41199999999999998</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -18373,7 +18384,7 @@
       <c r="I12" s="8">
         <v>0.246</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -18403,7 +18414,7 @@
       <c r="I13" s="8">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -18458,17 +18469,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -18675,17 +18686,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -18892,17 +18903,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -19122,17 +19133,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -19339,17 +19350,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -19556,17 +19567,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -19786,17 +19797,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -20003,17 +20014,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -20220,17 +20231,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -20450,17 +20461,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -20667,17 +20678,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -20884,17 +20895,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A4877-7FC3-B746-A0D8-0CB2B1784026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C43855C-E725-104D-80AD-133DB402BC04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="36">
   <si>
     <t>wall street with turns</t>
   </si>
@@ -138,12 +138,15 @@
   <si>
     <t>BSD</t>
   </si>
+  <si>
+    <t>BSD_O</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -192,6 +195,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -246,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,16 +315,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15007,10 +15020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15019,17 +15032,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -15289,18 +15302,21 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -15561,44 +15577,62 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="23">
         <v>1.2E-2</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="23">
         <v>0.122</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="23">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="23">
         <v>0.42599999999999999</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="23">
         <v>0.54</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="23">
         <v>0.628</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="23">
         <v>0.73</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="23">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="26">
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0.372</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0.66</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0.78600000000000003</v>
+      </c>
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -15612,17 +15646,17 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
@@ -15883,46 +15917,75 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="23">
         <v>0.02</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="23">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="23">
         <v>0.192</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="23">
         <v>0.32400000000000001</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="23">
         <v>0.48399999999999999</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="23">
         <v>0.59</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="23">
         <v>0.71799999999999997</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="23">
         <v>0.80600000000000005</v>
       </c>
     </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="26">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C39" s="26">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0.106</v>
+      </c>
+      <c r="E39" s="26">
+        <v>0.214</v>
+      </c>
+      <c r="F39" s="26">
+        <v>0.38</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0.54</v>
+      </c>
+      <c r="H39" s="26">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="I39" s="26">
+        <v>0.748</v>
+      </c>
+    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
@@ -16183,47 +16246,76 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="23">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="23">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="23">
         <v>0.11600000000000001</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="23">
         <v>0.20599999999999999</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="23">
         <v>0.28399999999999997</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="23">
         <v>0.374</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="23">
         <v>0.436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="C53" s="26">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0.114</v>
+      </c>
+      <c r="E53" s="26">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F53" s="26">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="G53" s="26">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H53" s="26">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I53" s="26">
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
@@ -16267,16 +16359,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
@@ -16538,32 +16630,61 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="25">
+      <c r="B69" s="23">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="23">
         <v>0.08</v>
       </c>
-      <c r="D69" s="25">
+      <c r="D69" s="23">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E69" s="23">
         <v>0.312</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="23">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G69" s="23">
         <v>0.48599999999999999</v>
       </c>
-      <c r="H69" s="25">
+      <c r="H69" s="23">
         <v>0.54600000000000004</v>
       </c>
-      <c r="I69" s="25">
+      <c r="I69" s="23">
         <v>0.628</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C70" s="26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D70" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="E70" s="26">
+        <v>0.21</v>
+      </c>
+      <c r="F70" s="26">
+        <v>0.316</v>
+      </c>
+      <c r="G70" s="26">
+        <v>0.39</v>
+      </c>
+      <c r="H70" s="26">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="I70" s="26">
+        <v>0.55400000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -16595,17 +16716,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -16866,17 +16987,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
@@ -17166,17 +17287,17 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
@@ -17466,17 +17587,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
@@ -17768,16 +17889,16 @@
     <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
@@ -17821,17 +17942,17 @@
     </row>
     <row r="67" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
@@ -18176,7 +18297,7 @@
       <c r="I1" s="11">
         <v>40</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -18208,7 +18329,7 @@
       <c r="I2" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -18238,7 +18359,7 @@
       <c r="I3" s="3">
         <v>0.246</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -18268,7 +18389,7 @@
       <c r="I4" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
@@ -18322,7 +18443,7 @@
       <c r="I10" s="11">
         <v>40</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18354,7 +18475,7 @@
       <c r="I11" s="8">
         <v>0.41199999999999998</v>
       </c>
-      <c r="J11" s="23"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -18384,7 +18505,7 @@
       <c r="I12" s="8">
         <v>0.246</v>
       </c>
-      <c r="J12" s="23"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -18414,7 +18535,7 @@
       <c r="I13" s="8">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J13" s="23"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -18469,17 +18590,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -18686,17 +18807,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -18903,17 +19024,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -19133,17 +19254,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -19350,17 +19471,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -19567,17 +19688,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -19797,17 +19918,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -20014,17 +20135,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -20231,17 +20352,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -20461,17 +20582,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -20678,17 +20799,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -20895,17 +21016,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C43855C-E725-104D-80AD-133DB402BC04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75911A96-C5F1-EC47-980B-6A38B1AD8EDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +243,18 @@
         <bgColor rgb="FFDEEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -256,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,9 +305,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -321,14 +330,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15022,8 +15040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15032,17 +15050,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -15303,20 +15321,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -15432,31 +15450,31 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="24">
         <v>75</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="26">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="26">
         <v>0.246</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="26">
         <v>0.52</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="26">
         <v>0.73399999999999999</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="26">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="26">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="26">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="26">
         <v>0.96199999999999997</v>
       </c>
     </row>
@@ -15551,86 +15569,86 @@
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>0.124</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>0.374</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>0.72199999999999998</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>0.94599999999999995</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>1.2E-2</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>0.122</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>0.42599999999999999</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>0.54</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>0.628</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>0.73</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="23">
         <v>0</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="23">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="23">
         <v>0.21</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="23">
         <v>0.372</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="23">
         <v>0.66</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="23">
         <v>0.76400000000000001</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="23">
         <v>0.78600000000000003</v>
       </c>
     </row>
@@ -15646,17 +15664,17 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
@@ -15772,31 +15790,31 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="24">
         <v>75</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="25">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="25">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="25">
         <v>0.38800000000000001</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="25">
         <v>0.61399999999999999</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="25">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="25">
         <v>0.91400000000000003</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="25">
         <v>0.95199999999999996</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="25">
         <v>0.96399999999999997</v>
       </c>
     </row>
@@ -15917,75 +15935,75 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="22">
         <v>0.02</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="22">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="22">
         <v>0.192</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>0.32400000000000001</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>0.48399999999999999</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>0.59</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>0.71799999999999997</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="23">
         <v>1.2E-2</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="23">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="23">
         <v>0.106</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="23">
         <v>0.214</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="23">
         <v>0.38</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="23">
         <v>0.54</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="23">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="23">
         <v>0.748</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
@@ -16246,79 +16264,79 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="22">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="22">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="22">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>0.11600000000000001</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>0.20599999999999999</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>0.28399999999999997</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <v>0.374</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>0.436</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="23">
         <v>0.01</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="23">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="23">
         <v>0.114</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="23">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="23">
         <v>0.22800000000000001</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="23">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H53" s="23">
         <v>0.35399999999999998</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="23">
         <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
     </row>
     <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>75</v>
       </c>
       <c r="B56" s="3">
@@ -16347,145 +16365,145 @@
       </c>
     </row>
     <row r="57" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18">
         <v>5</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="18">
         <v>10</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="18">
         <v>15</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="18">
         <v>20</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="18">
         <v>25</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="18">
         <v>30</v>
       </c>
-      <c r="H60" s="19">
+      <c r="H60" s="18">
         <v>35</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="18">
         <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>50</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="16">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="16">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="16">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="16">
         <v>0.05</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="16">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="16">
         <v>0.16400000000000001</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="16">
         <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>60</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="16">
         <v>1.2E-2</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>0.104</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="16">
         <v>0.184</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <v>0.26200000000000001</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="16">
         <v>0.44400000000000001</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="16">
         <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>70</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="16">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <v>0.124</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="16">
         <v>0.33200000000000002</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="16">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="16">
         <v>0.69799999999999995</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="16">
         <v>0.80200000000000005</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="16">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="16">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>75</v>
       </c>
       <c r="B64" s="3">
@@ -16514,7 +16532,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>80</v>
       </c>
       <c r="B65" s="3">
@@ -16543,7 +16561,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="16">
+      <c r="A66" s="15">
         <v>90</v>
       </c>
       <c r="B66" s="3">
@@ -16572,7 +16590,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="16">
+      <c r="A67" s="15">
         <v>100</v>
       </c>
       <c r="B67" s="3">
@@ -16604,86 +16622,86 @@
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="20">
         <v>0.13</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>0.35599999999999998</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="20">
         <v>0.55400000000000005</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="20">
         <v>0.69799999999999995</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="20">
         <v>0.78</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G68" s="20">
         <v>0.83</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H68" s="20">
         <v>0.878</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="20">
         <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="22">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="22">
         <v>0.08</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="22">
         <v>0.22800000000000001</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>0.312</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="22">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="22">
         <v>0.48599999999999999</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="22">
         <v>0.54600000000000004</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I69" s="22">
         <v>0.628</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="23">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="23">
         <v>0.11</v>
       </c>
-      <c r="E70" s="26">
+      <c r="E70" s="23">
         <v>0.21</v>
       </c>
-      <c r="F70" s="26">
+      <c r="F70" s="23">
         <v>0.316</v>
       </c>
-      <c r="G70" s="26">
+      <c r="G70" s="23">
         <v>0.39</v>
       </c>
-      <c r="H70" s="26">
+      <c r="H70" s="23">
         <v>0.44800000000000001</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I70" s="23">
         <v>0.55400000000000005</v>
       </c>
     </row>
@@ -16706,8 +16724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:I65"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16716,17 +16734,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -16987,17 +17005,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
@@ -17258,46 +17276,46 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>0</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>6.2E-2</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>0.1</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="19">
         <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
@@ -17558,46 +17576,46 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="19">
         <v>0.08</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="19">
         <v>0.11600000000000001</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="19">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="19">
         <v>0.246</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
@@ -17858,50 +17876,50 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="19">
         <v>0</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="19">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="19">
         <v>0.16</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <v>0.20200000000000001</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="19">
         <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
     </row>
     <row r="65" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>75</v>
       </c>
       <c r="B65" s="3">
@@ -17930,29 +17948,29 @@
       </c>
     </row>
     <row r="66" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
     </row>
     <row r="71" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
@@ -18213,31 +18231,31 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="19">
         <v>0.03</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="19">
         <v>0.06</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="19">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="19">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="19">
         <v>0.17799999999999999</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="19">
         <v>0.24399999999999999</v>
       </c>
     </row>
@@ -18297,7 +18315,7 @@
       <c r="I1" s="11">
         <v>40</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -18329,7 +18347,7 @@
       <c r="I2" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -18359,7 +18377,7 @@
       <c r="I3" s="3">
         <v>0.246</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -18389,7 +18407,7 @@
       <c r="I4" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
@@ -18443,7 +18461,7 @@
       <c r="I10" s="11">
         <v>40</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18475,7 +18493,7 @@
       <c r="I11" s="8">
         <v>0.41199999999999998</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -18505,7 +18523,7 @@
       <c r="I12" s="8">
         <v>0.246</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -18535,7 +18553,7 @@
       <c r="I13" s="8">
         <v>0.25800000000000001</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -18590,17 +18608,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -18807,17 +18825,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -19024,17 +19042,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -19254,17 +19272,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -19471,17 +19489,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -19688,17 +19706,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -19918,17 +19936,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -20135,17 +20153,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -20352,17 +20370,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -20582,17 +20600,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
@@ -20799,17 +20817,17 @@
       <c r="I10" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -21016,17 +21034,17 @@
       <c r="I26" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1">

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D574C-E992-714E-AD54-C513E8483CD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA7B55-FCDD-7A43-B71E-61C05BD02E88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="940" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="620" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -272,6 +272,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,7 +282,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6524,6 +6524,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6611,6 +6635,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6698,6 +6746,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6791,6 +6863,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9834,8 +9930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:I42"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9847,17 +9943,17 @@
       <c r="A1" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -10139,17 +10235,17 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
@@ -10268,28 +10364,28 @@
       <c r="A23" s="21">
         <v>75</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="25">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="25">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="25">
         <v>0.42799999999999999</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="25">
         <v>0.64800000000000002</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="25">
         <v>0.81</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="25">
         <v>0.92</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="25">
         <v>0.96</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="25">
         <v>0.97599999999999998</v>
       </c>
     </row>
@@ -10432,16 +10528,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
@@ -10728,8 +10824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:I51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10738,17 +10834,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -11022,17 +11118,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
@@ -11341,17 +11437,17 @@
       <c r="I46"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
@@ -11471,53 +11567,117 @@
       <c r="A52" s="2">
         <v>75</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="B52" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.68400000000000005</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>80</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="B53" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.754</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.86199999999999999</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>90</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="B54" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.442</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.95199999999999996</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>100</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="B55" s="3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.96399999999999997</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
@@ -11587,17 +11747,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
@@ -11627,7 +11787,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2">
@@ -11659,7 +11819,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2">
         <v>45</v>
       </c>
@@ -11689,7 +11849,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="2">
         <v>60</v>
       </c>
@@ -11731,7 +11891,7 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
@@ -11763,7 +11923,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="2">
         <v>45</v>
       </c>
@@ -11793,7 +11953,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="2">
         <v>60</v>
       </c>
@@ -11835,7 +11995,7 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2">
@@ -11867,7 +12027,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="2">
         <v>45</v>
       </c>
@@ -11897,7 +12057,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="2">
         <v>60</v>
       </c>
@@ -11939,7 +12099,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2">
@@ -11971,7 +12131,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="2">
         <v>45</v>
       </c>
@@ -12001,7 +12161,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="2">
         <v>60</v>
       </c>

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA7B55-FCDD-7A43-B71E-61C05BD02E88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D12EC-1EB5-FA41-99E9-49DDB05876A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="620" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
-  <si>
-    <t>ES1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>wall street with turns (new test routes)</t>
   </si>
@@ -82,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -93,14 +90,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF800000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -204,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,20 +207,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -248,16 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -266,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -279,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,1149 +348,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>union square</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$20:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472C4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$20:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.224</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF2C-6C4C-93E1-2A90C1A8DC33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$21:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$21:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.47799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.61599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72799999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FF2C-6C4C-93E1-2A90C1A8DC33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$22:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="A5A5A5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$22:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.32200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91800000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FF2C-6C4C-93E1-2A90C1A8DC33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$23:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$23:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97599999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FF2C-6C4C-93E1-2A90C1A8DC33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$24:$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.60399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FF2C-6C4C-93E1-2A90C1A8DC33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$25:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="70AD47"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.14399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FF2C-6C4C-93E1-2A90C1A8DC33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$26:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="264478"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$26:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98799999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FF2C-6C4C-93E1-2A90C1A8DC33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BSD_T_length '!$A$27:$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FF2C-6C4C-93E1-2A90C1A8DC33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="46034941"/>
-        <c:axId val="59532000"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="46034941"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59532000"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="59532000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="46034941"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2322,7 +1159,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ES1</c:v>
+                  <c:v>BSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2332,6 +1169,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2378,6 +1216,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2507,6 +1369,7 @@
         <c:crossAx val="142464288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2591,7 +1454,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3379,7 +2242,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ES</c:v>
+                  <c:v>BSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3389,6 +2252,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3435,6 +2299,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.752</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3564,6 +2452,1090 @@
         <c:crossAx val="212403104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>union</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>square</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8924-A541-A642-74D4F90B7F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8924-A541-A642-74D4F90B7F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8924-A541-A642-74D4F90B7F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8924-A541-A642-74D4F90B7F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8924-A541-A642-74D4F90B7F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8924-A541-A642-74D4F90B7F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8924-A541-A642-74D4F90B7F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BSD_T_length '!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BSD_T_length '!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8924-A541-A642-74D4F90B7F61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1358567359"/>
+        <c:axId val="1358569039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1358567359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358569039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1358569039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358567359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3704,7 +3676,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$24</c:f>
+              <c:f>BSD_length!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3748,7 +3720,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3781,7 +3753,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:f>BSD_length!$B$25:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3824,7 +3796,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$25</c:f>
+              <c:f>BSD_length!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3868,7 +3840,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3901,7 +3873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$25:$I$25</c:f>
+              <c:f>BSD_length!$B$26:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3944,7 +3916,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$26</c:f>
+              <c:f>BSD_length!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3988,7 +3960,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4021,7 +3993,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$26:$I$26</c:f>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4064,7 +4036,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$27</c:f>
+              <c:f>BSD_length!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4108,7 +4080,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4141,7 +4113,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$27:$I$27</c:f>
+              <c:f>BSD_length!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4184,7 +4156,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$28</c:f>
+              <c:f>BSD_length!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4228,7 +4200,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4261,7 +4233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$28:$I$28</c:f>
+              <c:f>BSD_length!$B$29:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4304,7 +4276,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$29</c:f>
+              <c:f>BSD_length!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4348,7 +4320,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4381,7 +4353,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$29:$I$29</c:f>
+              <c:f>BSD_length!$B$30:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4424,7 +4396,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$30</c:f>
+              <c:f>BSD_length!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4468,7 +4440,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4501,7 +4473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$30:$I$30</c:f>
+              <c:f>BSD_length!$B$31:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4544,7 +4516,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$31</c:f>
+              <c:f>BSD_length!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4588,7 +4560,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4621,7 +4593,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$31:$I$31</c:f>
+              <c:f>BSD_length!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4640,7 +4612,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$32</c:f>
+              <c:f>BSD_length!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4654,7 +4626,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$23:$I$23</c:f>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4687,7 +4659,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$32:$I$32</c:f>
+              <c:f>BSD_length!$B$33:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5665,7 +5637,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$15</c:f>
+              <c:f>BSD_length!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5721,7 +5693,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$15:$I$15</c:f>
+              <c:f>BSD_length!$B$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5740,7 +5712,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$16</c:f>
+              <c:f>BSD_length!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5798,7 +5770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$16:$I$16</c:f>
+              <c:f>BSD_length!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6119,7 +6091,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$49</c:f>
+              <c:f>BSD_length!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6154,7 +6126,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$48:$I$48</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6187,7 +6159,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6230,7 +6202,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$50</c:f>
+              <c:f>BSD_length!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6265,7 +6237,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$48:$I$48</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6298,7 +6270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$50:$I$50</c:f>
+              <c:f>BSD_length!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6341,7 +6313,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$51</c:f>
+              <c:f>BSD_length!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6376,7 +6348,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$48:$I$48</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6409,7 +6381,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$51:$I$51</c:f>
+              <c:f>BSD_length!$B$52:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6452,7 +6424,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$52</c:f>
+              <c:f>BSD_length!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6487,7 +6459,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$48:$I$48</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6520,7 +6492,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$52:$I$52</c:f>
+              <c:f>BSD_length!$B$53:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6563,7 +6535,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$53</c:f>
+              <c:f>BSD_length!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6598,7 +6570,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$48:$I$48</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6631,7 +6603,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$53:$I$53</c:f>
+              <c:f>BSD_length!$B$54:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6674,7 +6646,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$54</c:f>
+              <c:f>BSD_length!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6709,7 +6681,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$48:$I$48</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6742,7 +6714,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$54:$I$54</c:f>
+              <c:f>BSD_length!$B$55:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6785,7 +6757,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$55</c:f>
+              <c:f>BSD_length!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6826,7 +6798,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$48:$I$48</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6859,7 +6831,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$55:$I$55</c:f>
+              <c:f>BSD_length!$B$56:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6902,7 +6874,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSD_length!$A$56</c:f>
+              <c:f>BSD_length!$A$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6943,7 +6915,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BSD_length!$B$48:$I$48</c:f>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6976,7 +6948,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSD_length!$B$56:$I$56</c:f>
+              <c:f>BSD_length!$B$57:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7354,6 +7326,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8903,7 +8915,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9011,6 +9023,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9021,6 +9038,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9052,6 +9074,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9405,27 +9430,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6780</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>437040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>144460</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF697AA8-8B19-9746-BECA-977A392F99AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9446,22 +9974,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF697AA8-8B19-9746-BECA-977A392F99AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB755F9E-AEE8-0E43-94A0-C171A4D373D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9481,23 +10009,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB755F9E-AEE8-0E43-94A0-C171A4D373D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBDA5DB-FE0B-C842-B26A-DFF1D124C2C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9524,13 +10052,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6120</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>436680</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9566,7 +10094,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9596,13 +10124,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9930,8 +10458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9940,20 +10468,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
+      <c r="A1" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
@@ -10069,7 +10597,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>75</v>
       </c>
       <c r="B9" s="4">
@@ -10185,46 +10713,78 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.154</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.626</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.91400000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="A14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.154</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.626</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.91400000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
     </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -10235,17 +10795,17 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="A18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
@@ -10361,31 +10921,31 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>75</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="22">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="22">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="22">
         <v>0.42799999999999999</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="22">
         <v>0.64800000000000002</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="22">
         <v>0.81</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="22">
         <v>0.92</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="22">
         <v>0.96</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="22">
         <v>0.97599999999999998</v>
       </c>
     </row>
@@ -10476,185 +11036,217 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.156</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.79600000000000004</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="A28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.156</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.79600000000000004</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="A29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
     </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15">
+    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13">
         <v>5</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>10</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>15</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="13">
         <v>20</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="13">
         <v>25</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="13">
         <v>30</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="13">
         <v>35</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>50</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>0</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="11">
         <v>0.12</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <v>0.192</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <v>0.28399999999999997</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="11">
         <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="A37" s="10">
         <v>60</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>0.05</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="11">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="11">
         <v>0.27</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="11">
         <v>0.39400000000000002</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="11">
         <v>0.51600000000000001</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="11">
         <v>0.746</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>70</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="11">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="11">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="11">
         <v>0.36599999999999999</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="11">
         <v>0.51400000000000001</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="11">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="11">
         <v>0.81599999999999995</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="11">
         <v>0.92</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>75</v>
       </c>
       <c r="B39" s="4">
@@ -10683,7 +11275,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>80</v>
       </c>
       <c r="B40" s="3">
@@ -10712,7 +11304,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>90</v>
       </c>
       <c r="B41" s="3">
@@ -10741,7 +11333,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+      <c r="A42" s="10">
         <v>100</v>
       </c>
       <c r="B42" s="3">
@@ -10770,43 +11362,75 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="A43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="A44" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.752</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="A45" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10822,10 +11446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A6:I57"/>
+  <dimension ref="A6:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10834,17 +11458,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="A6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -11075,357 +11699,359 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="16">
+      <c r="A16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="14">
         <v>0</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C17" s="14">
         <v>1.4E-2</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="14">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="14">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="14">
         <v>0.33800000000000002</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="14">
         <v>0.52400000000000002</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H17" s="14">
         <v>0.67</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I17" s="14">
         <v>0.746</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
+      <c r="A23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1">
-        <v>25</v>
-      </c>
-      <c r="G23" s="1">
-        <v>30</v>
-      </c>
-      <c r="H23" s="1">
-        <v>35</v>
-      </c>
-      <c r="I23" s="1">
-        <v>40</v>
-      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1">
+        <v>35</v>
+      </c>
+      <c r="I24" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
       </c>
       <c r="C25" s="3">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
       </c>
       <c r="C26" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H26" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D26" s="3">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.192</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.32</v>
-      </c>
       <c r="I26" s="3">
-        <v>0.39600000000000002</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D27" s="3">
-        <v>0.17599999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E27" s="3">
-        <v>0.27400000000000002</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F27" s="3">
-        <v>0.41399999999999998</v>
+        <v>0.192</v>
       </c>
       <c r="G27" s="3">
-        <v>0.52600000000000002</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="H27" s="3">
-        <v>0.68200000000000005</v>
+        <v>0.32</v>
       </c>
       <c r="I27" s="3">
-        <v>0.71</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3">
-        <v>0.02</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C28" s="3">
-        <v>0.13200000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D28" s="3">
-        <v>0.29799999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E28" s="3">
-        <v>0.51800000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="F28" s="3">
-        <v>0.64200000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G28" s="3">
-        <v>0.78800000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="H28" s="3">
-        <v>0.84599999999999997</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="I28" s="3">
-        <v>0.85399999999999998</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3">
-        <v>9.4E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C29" s="3">
-        <v>0.41399999999999998</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>0.71399999999999997</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="E29" s="3">
-        <v>0.85199999999999998</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="F29" s="3">
-        <v>0.88800000000000001</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="G29" s="3">
-        <v>0.93400000000000005</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="H29" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="I29" s="3">
-        <v>0.91200000000000003</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B30" s="3">
-        <v>0.25600000000000001</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C30" s="3">
-        <v>0.74399999999999999</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>0.89800000000000002</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="E30" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="F30" s="3">
-        <v>0.94799999999999995</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="G30" s="3">
-        <v>0.95799999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="H30" s="3">
-        <v>0.97</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="I30" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="2">
+        <v>100</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.94599999999999995</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="16">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="14">
         <v>2E-3</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C33" s="14">
         <v>1.4E-2</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="14">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="14">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="14">
         <v>0.14599999999999999</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="14">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="14">
         <v>0.35399999999999998</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="14">
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -11436,78 +12062,60 @@
       <c r="H46"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
+    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="1">
+      <c r="A48" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="1">
         <v>5</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C49" s="1">
         <v>10</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D49" s="1">
         <v>15</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>20</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F49" s="1">
         <v>25</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G49" s="1">
         <v>30</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H49" s="1">
         <v>35</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I49" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>50</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>60</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -11516,216 +12124,245 @@
         <v>0</v>
       </c>
       <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E51" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G51" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H51" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I51" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>70</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B52" s="3">
         <v>0.01</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C52" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D52" s="3">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E52" s="3">
         <v>0.106</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="3">
         <v>0.192</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G52" s="3">
         <v>0.248</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H52" s="3">
         <v>0.35599999999999998</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I52" s="3">
         <v>0.436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>75</v>
-      </c>
-      <c r="B52" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C52" s="3">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B53" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C53" s="3">
-        <v>0.17199999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D53" s="3">
-        <v>0.33400000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E53" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F53" s="3">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
       <c r="G53" s="3">
-        <v>0.754</v>
+        <v>0.51</v>
       </c>
       <c r="H53" s="3">
-        <v>0.82399999999999995</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="I53" s="3">
-        <v>0.86199999999999999</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B54" s="3">
-        <v>0.122</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>0.442</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D54" s="3">
-        <v>0.72199999999999998</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E54" s="3">
-        <v>0.85199999999999998</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="F54" s="3">
-        <v>0.93600000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="G54" s="3">
-        <v>0.95399999999999996</v>
+        <v>0.754</v>
       </c>
       <c r="H54" s="3">
-        <v>0.96199999999999997</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="I54" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
+        <v>90</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.442</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>100</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B56" s="3">
         <v>0.34599999999999997</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C56" s="3">
         <v>0.79600000000000004</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="3">
         <v>0.94</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="3">
         <v>0.94599999999999995</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="3">
         <v>0.98399999999999999</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="3">
         <v>0.97</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H56" s="3">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I56" s="3">
         <v>0.96399999999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="16">
+      <c r="A57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="14">
         <v>2E-3</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C58" s="14">
         <v>1.6E-2</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="14">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E58" s="14">
         <v>0.108</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F58" s="14">
         <v>0.182</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G58" s="14">
         <v>0.27</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H58" s="14">
         <v>0.36799999999999999</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I58" s="14">
         <v>0.48799999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A48:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11743,24 +12380,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1">
         <v>5</v>
       </c>
@@ -11787,8 +12424,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>13</v>
+      <c r="A3" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>30</v>
@@ -11819,7 +12456,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2">
         <v>45</v>
       </c>
@@ -11849,37 +12486,37 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="2">
         <v>60</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>0.52400000000000002</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <v>0.77</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="20">
         <v>0.878</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -11891,39 +12528,39 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>12</v>
+      <c r="A7" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>30</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>0.16800000000000001</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>0.42799999999999999</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <v>0.64800000000000002</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>0.81</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="21">
         <v>0.92</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="21">
         <v>0.96</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="21">
         <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="2">
         <v>45</v>
       </c>
@@ -11953,7 +12590,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="2">
         <v>60</v>
       </c>
@@ -11982,8 +12619,8 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -11995,8 +12632,8 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
-        <v>14</v>
+      <c r="A11" s="24" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>30</v>
@@ -12027,7 +12664,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2">
         <v>45</v>
       </c>
@@ -12057,7 +12694,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2">
         <v>60</v>
       </c>
@@ -12086,8 +12723,8 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -12099,8 +12736,8 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>15</v>
+      <c r="A15" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>30</v>
@@ -12131,7 +12768,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="2">
         <v>45</v>
       </c>
@@ -12161,7 +12798,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="2">
         <v>60</v>
       </c>

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D12EC-1EB5-FA41-99E9-49DDB05876A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9DB5B-094C-D845-9E3D-9DE33926E5D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="640" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -4520,7 +4520,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ES</c:v>
+                  <c:v>BSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4530,6 +4530,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -4597,6 +4598,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4604,96 +4629,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-F1D7-E14A-B05D-0ED269C00998}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Turns</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$33:$I$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.47199999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0DB7-924F-B25B-63F0CA56EF72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4812,6 +4747,7 @@
         <c:crossAx val="26075849"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4854,1164 +4790,6 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>wall</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>street</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$8:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72DB-4849-BE80-CEFF4C7C2E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-72DB-4849-BE80-CEFF4C7C2E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.252</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.47199999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-72DB-4849-BE80-CEFF4C7C2E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.52800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79200000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-72DB-4849-BE80-CEFF4C7C2E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.436</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.622</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-72DB-4849-BE80-CEFF4C7C2E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.60399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92800000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-72DB-4849-BE80-CEFF4C7C2E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$14:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.38600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-72DB-4849-BE80-CEFF4C7C2E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$16:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-72DB-4849-BE80-CEFF4C7C2E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Turns</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.746</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-72DB-4849-BE80-CEFF4C7C2E57}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="191504912"/>
-        <c:axId val="189682736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="191504912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="189682736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="189682736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="191504912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6878,7 +5656,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ES</c:v>
+                  <c:v>BSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7082,6 +5860,1085 @@
         <c:crossAx val="757670303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>wall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> street</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45C9-0941-B72B-F4CB7EB00CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45C9-0941-B72B-F4CB7EB00CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-45C9-0941-B72B-F4CB7EB00CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-45C9-0941-B72B-F4CB7EB00CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-45C9-0941-B72B-F4CB7EB00CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-45C9-0941-B72B-F4CB7EB00CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-45C9-0941-B72B-F4CB7EB00CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-45C9-0941-B72B-F4CB7EB00CF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="815942720"/>
+        <c:axId val="815956528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="815942720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815956528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815956528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815942720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8915,7 +8772,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9023,11 +8880,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9038,11 +8890,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9074,9 +8921,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9431,7 +9275,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9539,6 +9383,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9549,6 +9398,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9580,6 +9434,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10051,15 +9908,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:colOff>18820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>196880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>436680</xdr:colOff>
+      <xdr:colOff>449380</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>131920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10088,21 +9945,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565AD327-8C62-844B-B6AF-C068EC87FF6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF8B097-CF90-AD4C-A986-12D346E575AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10124,21 +9981,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF8B097-CF90-AD4C-A986-12D346E575AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4955D752-A302-7D4C-82E3-280AA26BAEAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10458,7 +10315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -11448,8 +11305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11703,14 +11560,30 @@
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="B15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.248</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.28599999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -11998,16 +11871,32 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.186</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.22800000000000001</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
@@ -12318,7 +12207,7 @@
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>

--- a/results_for_eccv/result.xlsx
+++ b/results_for_eccv/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoumengjie/Desktop/route-finder/results_for_eccv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9DB5B-094C-D845-9E3D-9DE33926E5D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA3546D-4A20-914C-B8F4-48E57CE2BA83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="640" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="460" windowWidth="24700" windowHeight="14220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSD_T_length " sheetId="1" r:id="rId1"/>
@@ -3625,2330 +3625,6 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>union square</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4472C4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1D7-E14A-B05D-0ED269C00998}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$26:$I$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F1D7-E14A-B05D-0ED269C00998}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="A5A5A5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$27:$I$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39600000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F1D7-E14A-B05D-0ED269C00998}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$28:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.68200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F1D7-E14A-B05D-0ED269C00998}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$29:$I$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.64200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85399999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F1D7-E14A-B05D-0ED269C00998}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="70AD47"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$30:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91200000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F1D7-E14A-B05D-0ED269C00998}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="264478"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$31:$I$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.25600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.74399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94599999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F1D7-E14A-B05D-0ED269C00998}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BSD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$24:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$32:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.186</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22800000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F1D7-E14A-B05D-0ED269C00998}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:smooth val="0"/>
-        <c:axId val="26075849"/>
-        <c:axId val="66157706"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="26075849"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66157706"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66157706"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26075849"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>husdon river</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A618-FB41-8FC0-334E6BC03445}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$51:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A618-FB41-8FC0-334E6BC03445}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$52:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.248</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.436</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A618-FB41-8FC0-334E6BC03445}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$53:$I$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.68400000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A618-FB41-8FC0-334E6BC03445}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$54:$I$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.754</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.82399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86199999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A618-FB41-8FC0-334E6BC03445}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$55:$I$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.442</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95199999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A618-FB41-8FC0-334E6BC03445}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$56:$I$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.34599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96399999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-A618-FB41-8FC0-334E6BC03445}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BSD_length!$A$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BSD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BSD_length!$B$49:$I$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BSD_length!$B$57:$I$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-A618-FB41-8FC0-334E6BC03445}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="757670303"/>
-        <c:axId val="732744767"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="757670303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="732744767"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="732744767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="757670303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -6936,6 +4612,2159 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="815942720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>husdon river</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$50:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6834-0940-A63C-3ADD722AF8EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$51:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6834-0940-A63C-3ADD722AF8EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$52:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6834-0940-A63C-3ADD722AF8EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$53:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6834-0940-A63C-3ADD722AF8EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$54:$I$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6834-0940-A63C-3ADD722AF8EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$55:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6834-0940-A63C-3ADD722AF8EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6834-0940-A63C-3ADD722AF8EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$49:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$57:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6834-0940-A63C-3ADD722AF8EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="864575568"/>
+        <c:axId val="819290608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="864575568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819290608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="819290608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="864575568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>union</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> square</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FEE-9A4A-9B8B-D07A9CCE9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FEE-9A4A-9B8B-D07A9CCE9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FEE-9A4A-9B8B-D07A9CCE9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0FEE-9A4A-9B8B-D07A9CCE9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0FEE-9A4A-9B8B-D07A9CCE9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0FEE-9A4A-9B8B-D07A9CCE9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0FEE-9A4A-9B8B-D07A9CCE9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BSD_length!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BSD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BSD_length!$B$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BSD_length!$B$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0FEE-9A4A-9B8B-D07A9CCE9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="818160336"/>
+        <c:axId val="792062368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818160336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792062368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="792062368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818160336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -7223,6 +7052,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8772,7 +8641,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8880,6 +8749,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8890,6 +8764,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8921,6 +8800,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9275,6 +9157,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9905,25 +10303,25 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>18820</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>196880</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>449380</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>131920</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4955D752-A302-7D4C-82E3-280AA26BAEAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9945,21 +10343,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF8B097-CF90-AD4C-A986-12D346E575AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32739A94-E824-8549-A545-053F70A0D255}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9979,23 +10377,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4955D752-A302-7D4C-82E3-280AA26BAEAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F841A3-6C2C-374B-ADD6-63D84695AEE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11305,8 +11703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12209,14 +12607,30 @@
       <c r="A57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="B57" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C57" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="D57" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.124</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0.186</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.216</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0.30299999999999999</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
